--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -7,93 +7,114 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
-    <sheet name="2024" sheetId="4" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="6" r:id="rId6"/>
-    <sheet name="2027" sheetId="7" r:id="rId7"/>
-    <sheet name="2028" sheetId="8" r:id="rId8"/>
-    <sheet name="2029" sheetId="9" r:id="rId9"/>
-    <sheet name="2030" sheetId="10" r:id="rId10"/>
-    <sheet name="2031" sheetId="11" r:id="rId11"/>
-    <sheet name="2032" sheetId="12" r:id="rId12"/>
-    <sheet name="2033" sheetId="13" r:id="rId13"/>
-    <sheet name="2034" sheetId="14" r:id="rId14"/>
-    <sheet name="2035" sheetId="15" r:id="rId15"/>
-    <sheet name="2036" sheetId="16" r:id="rId16"/>
-    <sheet name="2037" sheetId="17" r:id="rId17"/>
-    <sheet name="2038" sheetId="18" r:id="rId18"/>
-    <sheet name="2039" sheetId="19" r:id="rId19"/>
-    <sheet name="2040" sheetId="20" r:id="rId20"/>
-    <sheet name="2041" sheetId="21" r:id="rId21"/>
-    <sheet name="2042" sheetId="22" r:id="rId22"/>
-    <sheet name="2043" sheetId="23" r:id="rId23"/>
-    <sheet name="2044" sheetId="24" r:id="rId24"/>
-    <sheet name="2045" sheetId="25" r:id="rId25"/>
-    <sheet name="2046" sheetId="26" r:id="rId26"/>
-    <sheet name="2047" sheetId="27" r:id="rId27"/>
-    <sheet name="2048" sheetId="28" r:id="rId28"/>
-    <sheet name="2049" sheetId="29" r:id="rId29"/>
-    <sheet name="2050" sheetId="30" r:id="rId30"/>
-    <sheet name="2051" sheetId="31" r:id="rId31"/>
-    <sheet name="2052" sheetId="32" r:id="rId32"/>
-    <sheet name="2053" sheetId="33" r:id="rId33"/>
-    <sheet name="2054" sheetId="34" r:id="rId34"/>
-    <sheet name="2055" sheetId="35" r:id="rId35"/>
-    <sheet name="2056" sheetId="36" r:id="rId36"/>
-    <sheet name="2057" sheetId="37" r:id="rId37"/>
-    <sheet name="2058" sheetId="38" r:id="rId38"/>
-    <sheet name="2059" sheetId="39" r:id="rId39"/>
-    <sheet name="2060" sheetId="40" r:id="rId40"/>
-    <sheet name="2061" sheetId="41" r:id="rId41"/>
-    <sheet name="2062" sheetId="42" r:id="rId42"/>
-    <sheet name="2063" sheetId="43" r:id="rId43"/>
-    <sheet name="2064" sheetId="44" r:id="rId44"/>
-    <sheet name="2065" sheetId="45" r:id="rId45"/>
-    <sheet name="2066" sheetId="46" r:id="rId46"/>
-    <sheet name="2067" sheetId="47" r:id="rId47"/>
-    <sheet name="2068" sheetId="48" r:id="rId48"/>
-    <sheet name="2069" sheetId="49" r:id="rId49"/>
-    <sheet name="2070" sheetId="50" r:id="rId50"/>
-    <sheet name="2071" sheetId="51" r:id="rId51"/>
-    <sheet name="2072" sheetId="52" r:id="rId52"/>
-    <sheet name="2073" sheetId="53" r:id="rId53"/>
-    <sheet name="2074" sheetId="54" r:id="rId54"/>
-    <sheet name="2075" sheetId="55" r:id="rId55"/>
-    <sheet name="2076" sheetId="56" r:id="rId56"/>
-    <sheet name="2077" sheetId="57" r:id="rId57"/>
-    <sheet name="2078" sheetId="58" r:id="rId58"/>
-    <sheet name="2079" sheetId="59" r:id="rId59"/>
-    <sheet name="2080" sheetId="60" r:id="rId60"/>
-    <sheet name="2081" sheetId="61" r:id="rId61"/>
-    <sheet name="2082" sheetId="62" r:id="rId62"/>
-    <sheet name="2083" sheetId="63" r:id="rId63"/>
-    <sheet name="2084" sheetId="64" r:id="rId64"/>
-    <sheet name="2085" sheetId="65" r:id="rId65"/>
-    <sheet name="2086" sheetId="66" r:id="rId66"/>
-    <sheet name="2087" sheetId="67" r:id="rId67"/>
-    <sheet name="2088" sheetId="68" r:id="rId68"/>
-    <sheet name="2089" sheetId="69" r:id="rId69"/>
-    <sheet name="2090" sheetId="70" r:id="rId70"/>
-    <sheet name="2091" sheetId="71" r:id="rId71"/>
-    <sheet name="2092" sheetId="72" r:id="rId72"/>
-    <sheet name="2093" sheetId="73" r:id="rId73"/>
-    <sheet name="2094" sheetId="74" r:id="rId74"/>
-    <sheet name="2095" sheetId="75" r:id="rId75"/>
-    <sheet name="2096" sheetId="76" r:id="rId76"/>
-    <sheet name="2097" sheetId="77" r:id="rId77"/>
-    <sheet name="2098" sheetId="78" r:id="rId78"/>
-    <sheet name="2099" sheetId="79" r:id="rId79"/>
-    <sheet name="2100" sheetId="80" r:id="rId80"/>
+    <sheet name="2000" sheetId="1" r:id="rId1"/>
+    <sheet name="2001" sheetId="2" r:id="rId2"/>
+    <sheet name="2002" sheetId="3" r:id="rId3"/>
+    <sheet name="2003" sheetId="4" r:id="rId4"/>
+    <sheet name="2004" sheetId="5" r:id="rId5"/>
+    <sheet name="2005" sheetId="6" r:id="rId6"/>
+    <sheet name="2006" sheetId="7" r:id="rId7"/>
+    <sheet name="2007" sheetId="8" r:id="rId8"/>
+    <sheet name="2008" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
+    <sheet name="2010" sheetId="11" r:id="rId11"/>
+    <sheet name="2011" sheetId="12" r:id="rId12"/>
+    <sheet name="2012" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2014" sheetId="15" r:id="rId15"/>
+    <sheet name="2015" sheetId="16" r:id="rId16"/>
+    <sheet name="2016" sheetId="17" r:id="rId17"/>
+    <sheet name="2017" sheetId="18" r:id="rId18"/>
+    <sheet name="2018" sheetId="19" r:id="rId19"/>
+    <sheet name="2019" sheetId="20" r:id="rId20"/>
+    <sheet name="2020" sheetId="21" r:id="rId21"/>
+    <sheet name="2021" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId23"/>
+    <sheet name="2023" sheetId="24" r:id="rId24"/>
+    <sheet name="2024" sheetId="25" r:id="rId25"/>
+    <sheet name="2025" sheetId="26" r:id="rId26"/>
+    <sheet name="2026" sheetId="27" r:id="rId27"/>
+    <sheet name="2027" sheetId="28" r:id="rId28"/>
+    <sheet name="2028" sheetId="29" r:id="rId29"/>
+    <sheet name="2029" sheetId="30" r:id="rId30"/>
+    <sheet name="2030" sheetId="31" r:id="rId31"/>
+    <sheet name="2031" sheetId="32" r:id="rId32"/>
+    <sheet name="2032" sheetId="33" r:id="rId33"/>
+    <sheet name="2033" sheetId="34" r:id="rId34"/>
+    <sheet name="2034" sheetId="35" r:id="rId35"/>
+    <sheet name="2035" sheetId="36" r:id="rId36"/>
+    <sheet name="2036" sheetId="37" r:id="rId37"/>
+    <sheet name="2037" sheetId="38" r:id="rId38"/>
+    <sheet name="2038" sheetId="39" r:id="rId39"/>
+    <sheet name="2039" sheetId="40" r:id="rId40"/>
+    <sheet name="2040" sheetId="41" r:id="rId41"/>
+    <sheet name="2041" sheetId="42" r:id="rId42"/>
+    <sheet name="2042" sheetId="43" r:id="rId43"/>
+    <sheet name="2043" sheetId="44" r:id="rId44"/>
+    <sheet name="2044" sheetId="45" r:id="rId45"/>
+    <sheet name="2045" sheetId="46" r:id="rId46"/>
+    <sheet name="2046" sheetId="47" r:id="rId47"/>
+    <sheet name="2047" sheetId="48" r:id="rId48"/>
+    <sheet name="2048" sheetId="49" r:id="rId49"/>
+    <sheet name="2049" sheetId="50" r:id="rId50"/>
+    <sheet name="2050" sheetId="51" r:id="rId51"/>
+    <sheet name="2051" sheetId="52" r:id="rId52"/>
+    <sheet name="2052" sheetId="53" r:id="rId53"/>
+    <sheet name="2053" sheetId="54" r:id="rId54"/>
+    <sheet name="2054" sheetId="55" r:id="rId55"/>
+    <sheet name="2055" sheetId="56" r:id="rId56"/>
+    <sheet name="2056" sheetId="57" r:id="rId57"/>
+    <sheet name="2057" sheetId="58" r:id="rId58"/>
+    <sheet name="2058" sheetId="59" r:id="rId59"/>
+    <sheet name="2059" sheetId="60" r:id="rId60"/>
+    <sheet name="2060" sheetId="61" r:id="rId61"/>
+    <sheet name="2061" sheetId="62" r:id="rId62"/>
+    <sheet name="2062" sheetId="63" r:id="rId63"/>
+    <sheet name="2063" sheetId="64" r:id="rId64"/>
+    <sheet name="2064" sheetId="65" r:id="rId65"/>
+    <sheet name="2065" sheetId="66" r:id="rId66"/>
+    <sheet name="2066" sheetId="67" r:id="rId67"/>
+    <sheet name="2067" sheetId="68" r:id="rId68"/>
+    <sheet name="2068" sheetId="69" r:id="rId69"/>
+    <sheet name="2069" sheetId="70" r:id="rId70"/>
+    <sheet name="2070" sheetId="71" r:id="rId71"/>
+    <sheet name="2071" sheetId="72" r:id="rId72"/>
+    <sheet name="2072" sheetId="73" r:id="rId73"/>
+    <sheet name="2073" sheetId="74" r:id="rId74"/>
+    <sheet name="2074" sheetId="75" r:id="rId75"/>
+    <sheet name="2075" sheetId="76" r:id="rId76"/>
+    <sheet name="2076" sheetId="77" r:id="rId77"/>
+    <sheet name="2077" sheetId="78" r:id="rId78"/>
+    <sheet name="2078" sheetId="79" r:id="rId79"/>
+    <sheet name="2079" sheetId="80" r:id="rId80"/>
+    <sheet name="2080" sheetId="81" r:id="rId81"/>
+    <sheet name="2081" sheetId="82" r:id="rId82"/>
+    <sheet name="2082" sheetId="83" r:id="rId83"/>
+    <sheet name="2083" sheetId="84" r:id="rId84"/>
+    <sheet name="2084" sheetId="85" r:id="rId85"/>
+    <sheet name="2085" sheetId="86" r:id="rId86"/>
+    <sheet name="2086" sheetId="87" r:id="rId87"/>
+    <sheet name="2087" sheetId="88" r:id="rId88"/>
+    <sheet name="2088" sheetId="89" r:id="rId89"/>
+    <sheet name="2089" sheetId="90" r:id="rId90"/>
+    <sheet name="2090" sheetId="91" r:id="rId91"/>
+    <sheet name="2091" sheetId="92" r:id="rId92"/>
+    <sheet name="2092" sheetId="93" r:id="rId93"/>
+    <sheet name="2093" sheetId="94" r:id="rId94"/>
+    <sheet name="2094" sheetId="95" r:id="rId95"/>
+    <sheet name="2095" sheetId="96" r:id="rId96"/>
+    <sheet name="2096" sheetId="97" r:id="rId97"/>
+    <sheet name="2097" sheetId="98" r:id="rId98"/>
+    <sheet name="2098" sheetId="99" r:id="rId99"/>
+    <sheet name="2099" sheetId="100" r:id="rId100"/>
+    <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="6">
   <si>
     <t>FD</t>
   </si>
@@ -107,10 +128,10 @@
     <t>PV</t>
   </si>
   <si>
-    <t>Offshore wind</t>
+    <t>Onshore wind</t>
   </si>
   <si>
-    <t>Onshore wind</t>
+    <t>Offshore wind</t>
   </si>
 </sst>
 </file>
@@ -490,6 +511,902 @@
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25937238858.34505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>17980061657.74806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1377486416.218049</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>26984548283.24121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5843023148.154541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1082487831.764465</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>26821933763.37988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4861414959.802246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>801987552.0704956</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>54023068249.90071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13245593677.47217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1729281599.762136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>81394693561.71643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14164423880.34624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>535940462.4897327</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>47733692590.85226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15179251202.87103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1316954491.15937</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>23783876409.46719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12469159359.16681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4284928298.884659</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14482239894.13876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15231732260.84207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2265417721.33449</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13598925831.19092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13314995621.93921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>11327284990.51128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9563513078.68457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13701629541.77362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5279272837.620033</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7726059148.261627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13837072694.57019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6118462512.465347</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10030214862.83565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9108026924.201721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7032545485.529816</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>407753480.198209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7846528544.909435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>37117897.44300002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18477732309.07109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11057976825.26596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4981504696.194942</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16051763295.22893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8808325383.986206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6789801582.611027</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>20223313976.99936</v>
       </c>
     </row>
@@ -500,29 +1417,533 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12054608050.53534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1438661586.768379</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12054608050.53534</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25497331324.39523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15931021725.08926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2331923175.882248</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>169906047282.5604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>41286638689.48755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7600880144.160187</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>170045236880.7864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>41805999978.11307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7618111893.073143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>170212976762.6241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>42870549428.65295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7660560653.637321</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>542140028686.7102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>134659117299.3838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24527661371.84265</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>542363707380.6262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>133978987235.549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24581881156.33606</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>542610175473.1624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132238156121.9185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24441210486.25618</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>344203153.385309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9671167627.441425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>676370575.6279999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>542872207885.3799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132210138460.248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24209481399.0683</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -556,29 +1977,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>132584768694.6096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>24281441931.50198</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132584768694.6096</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -612,29 +2033,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>118922671394.981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>21989861184.39011</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>118922671394.981</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -668,29 +2089,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>119005978933.8977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22061180604.64838</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>119005978933.8977</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -724,29 +2145,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>118747372563.2222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22094700699.5112</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>118747372563.2222</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -780,29 +2201,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>118843433696.0486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22174060674.64865</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>118843433696.0486</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -836,29 +2257,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>118044825709.2292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22078382527.9823</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>118044825709.2292</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -892,29 +2313,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14135687362.37695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2899457871.831177</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14135687362.37695</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -948,29 +2369,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14716303766.68164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3438104695.937988</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14716303766.68164</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1004,29 +2425,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14462912934.11279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4136989964.859009</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14462912934.11279</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>971096745.3378849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7676332671.315521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>863609747.1737996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1060,85 +2537,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14605039176.65405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4228106611.271851</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14605039176.65405</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>25497331324.39523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2331923175.882248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15931021725.08926</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1172,29 +2593,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14564188015.45361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4234540750.150513</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14564188015.45361</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1228,29 +2649,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>106366626.019043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>368079114.1376953</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>106366626.019043</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1306,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1340,29 +2761,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>7178317.280212402</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1396,29 +2817,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>535949661.4343262</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1452,29 +2873,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>2366898285.43457</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1508,29 +2929,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>5080221659.315186</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1564,29 +2985,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9610197043.437012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>582192127.4299316</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9610197043.437012</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1620,29 +3041,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14111781160.4668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2617147274.673401</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14111781160.4668</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2894021473.664189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10163621845.63424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>103930112.8404005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1676,85 +3153,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16372704511.07837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3109554564.740173</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16372704511.07837</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>169906047282.5604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7600880144.160187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>41286638689.48755</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1788,29 +3209,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>22371249248.68652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4082149635.009521</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>22371249248.68652</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1844,29 +3265,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>32579987299.90698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>5998355688.518066</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>32579987299.90698</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1900,29 +3321,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>22295031032.58813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4175897329.900452</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>22295031032.58813</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1956,29 +3377,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>2615003992.208984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>546375895.8754883</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2615003992.208984</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2034,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2090,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2146,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2180,29 +3601,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13685030849.47363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2641891206.274536</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13685030849.47363</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2236,29 +3657,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13952324453.89111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2663860095.967346</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13952324453.89111</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3986206616.406919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9696589980.632721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2292,85 +3769,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>7922614098.52002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1553537589.201904</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7922614098.52002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>170045236880.7864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7618111893.073143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>41805999978.11307</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2426,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2482,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2538,7 +3959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2572,29 +3993,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12229914253.34253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2600732944.767761</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12229914253.34253</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2628,29 +4049,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14798144538.20703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2833169271.569458</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14798144538.20703</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2684,29 +4105,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13035203869.19189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2159276082.722839</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13035203869.19189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2740,29 +4161,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9197482063.753662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1209066772.541016</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9197482063.753662</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2796,29 +4217,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10820980977.68774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1567709894.539673</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10820980977.68774</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2852,29 +4273,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14153327385.83569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2425021434.102478</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14153327385.83569</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3868249660.646107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11614231857.38789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>445414769.3159997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2908,85 +4385,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15290523966.62549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2665406066.402283</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15290523966.62549</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>170212976762.6241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7660560653.637321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>42870549428.65295</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3020,29 +4441,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16236816404.74976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2770522405.754333</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16236816404.74976</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3076,29 +4497,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15706479391.60889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2709858231.3255</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15706479391.60889</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3132,29 +4553,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16476339049.99731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3098859571.364929</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16476339049.99731</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3188,29 +4609,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16695282139.25269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3435640184.768127</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16695282139.25269</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3244,29 +4665,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16429303352.32642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3326740230.751831</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16429303352.32642</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3300,29 +4721,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15993846963.16333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2986969346.445862</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15993846963.16333</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3356,29 +4777,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12400727145.36548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2292690436.797119</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12400727145.36548</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3412,29 +4833,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6126499505.560547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1162833677.593262</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6126499505.560547</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3468,29 +4889,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>2178970651.81543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>417456191.4599609</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2178970651.81543</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7210886422.392445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13346239590.20473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>449538980.1430001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3524,85 +5001,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6024696952.450439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1104557952.191101</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6024696952.450439</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>542140028686.7102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24527661371.84265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>134659117299.3838</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3636,29 +5057,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11542673552.00537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2132827464.24469</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11542673552.00537</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3692,29 +5113,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13236449534.06934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2470100168.101196</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13236449534.06934</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3748,29 +5169,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14527117179.52979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2719805056.812744</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14527117179.52979</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3804,29 +5225,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11917630447.34814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2217885246.074585</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11917630447.34814</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3860,29 +5281,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>7391533803.008301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1351959474.433594</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7391533803.008301</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3916,29 +5337,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6815628489.344971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1240862141.695007</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6815628489.344971</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3972,29 +5393,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8598097194.091064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1591062974.515503</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8598097194.091064</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4028,29 +5449,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12075972245.5542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2269803933.018005</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12075972245.5542</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4084,29 +5505,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14024680431.0166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2619351570.584351</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14024680431.0166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>22035438296.37484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11317587635.00562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>602134780.7420015</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4140,85 +5617,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12678849421.8479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2249685958.652039</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12678849421.8479</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>542363707380.6262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24581881156.33606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>133978987235.549</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4252,29 +5673,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9346187865.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1523889191.279297</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9346187865.375</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4308,29 +5729,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>7306823610.672852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1214490654.400391</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7306823610.672852</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4364,29 +5785,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8697912805.371582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1616616871.539246</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8697912805.371582</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4420,29 +5841,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10001389955.48193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1947028064.504578</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10001389955.48193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4476,29 +5897,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9689749641.873779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1865573648.719788</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9689749641.873779</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4532,29 +5953,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8917229966.544922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1684306771.944275</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8917229966.544922</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4588,29 +6009,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6800515103.499512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1335286572.407532</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6800515103.499512</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4644,29 +6065,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6667450502.837158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1378071222.933838</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6667450502.837158</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4700,243 +6121,19 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6487653179.848389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1326695371.83844</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6487653179.848389</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>26984548283.24121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1082487831.764465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5843023148.154541</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>542610175473.1624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24441210486.25618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132238156121.9185</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>26821933763.37988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>801987552.0704956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4861414959.802246</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>542872207885.3799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24209481399.0683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132210138460.248</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind</t>
+    <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Onshore wind</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
-    <t>PV</t>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1377486416.218049</v>
+        <v>17980061657.74806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980061657.74806</v>
+        <v>25937238858.34505</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25937238858.34505</v>
+        <v>1377486416.218049</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1082487831.764465</v>
+        <v>5843023148.154541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5843023148.154541</v>
+        <v>26984548283.24121</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26984548283.24121</v>
+        <v>1082487831.764465</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>801987552.0704956</v>
+        <v>4861414959.802246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4861414959.802246</v>
+        <v>26821933763.37988</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26821933763.37988</v>
+        <v>801987552.0704956</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1729281599.762136</v>
+        <v>13245593677.47217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245593677.47217</v>
+        <v>54023068249.90071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54023068249.90071</v>
+        <v>1729281599.762136</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535940462.4897327</v>
+        <v>14164423880.34624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164423880.34624</v>
+        <v>81394693561.71643</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81394693561.71643</v>
+        <v>535940462.4897327</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1316954491.15937</v>
+        <v>15179251202.87103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179251202.87103</v>
+        <v>47733692590.85226</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47733692590.85226</v>
+        <v>1316954491.15937</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4284928298.884659</v>
+        <v>12469159359.16681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469159359.16681</v>
+        <v>23783876409.46719</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23783876409.46719</v>
+        <v>4284928298.884659</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2265417721.33449</v>
+        <v>15231732260.84207</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15231732260.84207</v>
+        <v>14482239894.13876</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14482239894.13876</v>
+        <v>2265417721.33449</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11327284990.51128</v>
+        <v>13314995621.93921</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13314995621.93921</v>
+        <v>13598925831.19092</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13598925831.19092</v>
+        <v>11327284990.51128</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5279272837.620033</v>
+        <v>13701629541.77362</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13701629541.77362</v>
+        <v>9563513078.68457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9563513078.68457</v>
+        <v>5279272837.620033</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6118462512.465347</v>
+        <v>13837072694.57019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13837072694.57019</v>
+        <v>7726059148.261627</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7726059148.261627</v>
+        <v>6118462512.465347</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7032545485.529816</v>
+        <v>9108026924.201721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9108026924.201721</v>
+        <v>10030214862.83565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10030214862.83565</v>
+        <v>7032545485.529816</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37117897.44300002</v>
+        <v>7846528544.909435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846528544.909435</v>
+        <v>407753480.198209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407753480.198209</v>
+        <v>37117897.44300002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4981504696.194942</v>
+        <v>11057976825.26596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11057976825.26596</v>
+        <v>18477732309.07109</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18477732309.07109</v>
+        <v>4981504696.194942</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6789801582.611027</v>
+        <v>8808325383.986206</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8808325383.986206</v>
+        <v>16051763295.22893</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16051763295.22893</v>
+        <v>6789801582.611027</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1438661586.768379</v>
+        <v>12054608050.53534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12054608050.53534</v>
+        <v>20223313976.99936</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20223313976.99936</v>
+        <v>1438661586.768379</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2331923175.882248</v>
+        <v>15931021725.08926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15931021725.08926</v>
+        <v>25497331324.39523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25497331324.39523</v>
+        <v>2331923175.882248</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7600880144.160187</v>
+        <v>41286638689.48755</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41286638689.48755</v>
+        <v>169906047282.5604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>169906047282.5604</v>
+        <v>7600880144.160187</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7618111893.073143</v>
+        <v>41805999978.11307</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41805999978.11307</v>
+        <v>170045236880.7864</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170045236880.7864</v>
+        <v>7618111893.073143</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7660560653.637321</v>
+        <v>42870549428.65295</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42870549428.65295</v>
+        <v>170212976762.6241</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170212976762.6241</v>
+        <v>7660560653.637321</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24527661371.84265</v>
+        <v>134659117299.3838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>134659117299.3838</v>
+        <v>542140028686.7102</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542140028686.7102</v>
+        <v>24527661371.84265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24581881156.33606</v>
+        <v>133978987235.549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133978987235.549</v>
+        <v>542363707380.6262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542363707380.6262</v>
+        <v>24581881156.33606</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24441210486.25618</v>
+        <v>132238156121.9185</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132238156121.9185</v>
+        <v>542610175473.1624</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542610175473.1624</v>
+        <v>24441210486.25618</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>676370575.6279999</v>
+        <v>9671167627.441425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671167627.441425</v>
+        <v>344203153.385309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344203153.385309</v>
+        <v>676370575.6279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24209481399.0683</v>
+        <v>132210138460.248</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132210138460.248</v>
+        <v>542872207885.3799</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542872207885.3799</v>
+        <v>24209481399.0683</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24281441931.50198</v>
+        <v>132584768694.6096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132584768694.6096</v>
+        <v>543139758343.312</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543139758343.312</v>
+        <v>24281441931.50198</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21989861184.39011</v>
+        <v>118922671394.981</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118922671394.981</v>
+        <v>518925867728.4536</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>518925867728.4536</v>
+        <v>21989861184.39011</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22061180604.64838</v>
+        <v>119005978933.8977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>119005978933.8977</v>
+        <v>519166238255.1802</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519166238255.1802</v>
+        <v>22061180604.64838</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22094700699.5112</v>
+        <v>118747372563.2222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118747372563.2222</v>
+        <v>519373939624.582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519373939624.582</v>
+        <v>22094700699.5112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22174060674.64865</v>
+        <v>118843433696.0486</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118843433696.0486</v>
+        <v>519541422064.0566</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519541422064.0566</v>
+        <v>22174060674.64865</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22078382527.9823</v>
+        <v>118044825709.2292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118044825709.2292</v>
+        <v>519671066657.4365</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519671066657.4365</v>
+        <v>22078382527.9823</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2899457871.831177</v>
+        <v>14135687362.37695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14135687362.37695</v>
+        <v>85561254707.81934</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85561254707.81934</v>
+        <v>2899457871.831177</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3438104695.937988</v>
+        <v>14716303766.68164</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14716303766.68164</v>
+        <v>85694300900.0166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85694300900.0166</v>
+        <v>3438104695.937988</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4136989964.859009</v>
+        <v>14462912934.11279</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14462912934.11279</v>
+        <v>85919760834.28418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85919760834.28418</v>
+        <v>4136989964.859009</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>863609747.1737996</v>
+        <v>7676332671.315521</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676332671.315521</v>
+        <v>971096745.3378849</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971096745.3378849</v>
+        <v>863609747.1737996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4228106611.271851</v>
+        <v>14605039176.65405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14605039176.65405</v>
+        <v>86336596996.82031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>86336596996.82031</v>
+        <v>4228106611.271851</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4234540750.150513</v>
+        <v>14564188015.45361</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14564188015.45361</v>
+        <v>87066865596.33203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87066865596.33203</v>
+        <v>4234540750.150513</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>368079114.1376953</v>
+        <v>106366626.019043</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>106366626.019043</v>
+        <v>6104429757.496094</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6104429757.496094</v>
+        <v>368079114.1376953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7839114427.345703</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7839114427.345703</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7178317.280212402</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10208368784.37695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10208368784.37695</v>
+        <v>7178317.280212402</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>535949661.4343262</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535949661.4343262</v>
+        <v>13217426557.96289</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13217426557.96289</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2366898285.43457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2366898285.43457</v>
+        <v>16783916313.04492</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16783916313.04492</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5080221659.315186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5080221659.315186</v>
+        <v>20732563066.80078</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20732563066.80078</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>582192127.4299316</v>
+        <v>9610197043.437012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9610197043.437012</v>
+        <v>24803812964.61914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24803812964.61914</v>
+        <v>582192127.4299316</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2617147274.673401</v>
+        <v>14111781160.4668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14111781160.4668</v>
+        <v>28672321039.51953</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28672321039.51953</v>
+        <v>2617147274.673401</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103930112.8404005</v>
+        <v>10163621845.63424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163621845.63424</v>
+        <v>2894021473.664189</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894021473.664189</v>
+        <v>103930112.8404005</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3109554564.740173</v>
+        <v>16372704511.07837</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16372704511.07837</v>
+        <v>31969642531.86523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31969642531.86523</v>
+        <v>3109554564.740173</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4082149635.009521</v>
+        <v>22371249248.68652</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22371249248.68652</v>
+        <v>34308248252.00488</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34308248252.00488</v>
+        <v>4082149635.009521</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5998355688.518066</v>
+        <v>32579987299.90698</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32579987299.90698</v>
+        <v>35309099915.18164</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35309099915.18164</v>
+        <v>5998355688.518066</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4175897329.900452</v>
+        <v>22295031032.58813</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22295031032.58813</v>
+        <v>34638032161.38086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34638032161.38086</v>
+        <v>4175897329.900452</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>546375895.8754883</v>
+        <v>2615003992.208984</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2615003992.208984</v>
+        <v>32053630415.2334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32053630415.2334</v>
+        <v>546375895.8754883</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27461653183.46387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27461653183.46387</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>76358883862.57031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>76358883862.57031</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>83945305519.13574</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>83945305519.13574</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2641891206.274536</v>
+        <v>13685030849.47363</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13685030849.47363</v>
+        <v>74790695080.16406</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>74790695080.16406</v>
+        <v>2641891206.274536</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2663860095.967346</v>
+        <v>13952324453.89111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13952324453.89111</v>
+        <v>65235503650.55762</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>65235503650.55762</v>
+        <v>2663860095.967346</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9696589980.632721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696589980.632721</v>
+        <v>3986206616.406919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986206616.406919</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1553537589.201904</v>
+        <v>7922614098.52002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7922614098.52002</v>
+        <v>56000996165.26465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>56000996165.26465</v>
+        <v>1553537589.201904</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>47762296422.9707</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47762296422.9707</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>33014553651.5918</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33014553651.5918</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>28222135184.86426</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28222135184.86426</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2600732944.767761</v>
+        <v>12229914253.34253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12229914253.34253</v>
+        <v>25516008818.71973</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25516008818.71973</v>
+        <v>2600732944.767761</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2833169271.569458</v>
+        <v>14798144538.20703</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14798144538.20703</v>
+        <v>24910062555.09082</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24910062555.09082</v>
+        <v>2833169271.569458</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2159276082.722839</v>
+        <v>13035203869.19189</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13035203869.19189</v>
+        <v>26274282199.4502</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26274282199.4502</v>
+        <v>2159276082.722839</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1209066772.541016</v>
+        <v>9197482063.753662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9197482063.753662</v>
+        <v>21405256442.8252</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21405256442.8252</v>
+        <v>1209066772.541016</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1567709894.539673</v>
+        <v>10820980977.68774</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10820980977.68774</v>
+        <v>25791167698.06445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25791167698.06445</v>
+        <v>1567709894.539673</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2425021434.102478</v>
+        <v>14153327385.83569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14153327385.83569</v>
+        <v>30991519293.03711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30991519293.03711</v>
+        <v>2425021434.102478</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445414769.3159997</v>
+        <v>11614231857.38789</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614231857.38789</v>
+        <v>3868249660.646107</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868249660.646107</v>
+        <v>445414769.3159997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2665406066.402283</v>
+        <v>15290523966.62549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15290523966.62549</v>
+        <v>36453648757.7793</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36453648757.7793</v>
+        <v>2665406066.402283</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2770522405.754333</v>
+        <v>16236816404.74976</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16236816404.74976</v>
+        <v>41660871245.68457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41660871245.68457</v>
+        <v>2770522405.754333</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2709858231.3255</v>
+        <v>15706479391.60889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15706479391.60889</v>
+        <v>40252513676.2041</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40252513676.2041</v>
+        <v>2709858231.3255</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3098859571.364929</v>
+        <v>16476339049.99731</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16476339049.99731</v>
+        <v>43963075572.18848</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43963075572.18848</v>
+        <v>3098859571.364929</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3435640184.768127</v>
+        <v>16695282139.25269</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16695282139.25269</v>
+        <v>46791628833.28418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46791628833.28418</v>
+        <v>3435640184.768127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3326740230.751831</v>
+        <v>16429303352.32642</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16429303352.32642</v>
+        <v>48831228114.2998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48831228114.2998</v>
+        <v>3326740230.751831</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2986969346.445862</v>
+        <v>15993846963.16333</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15993846963.16333</v>
+        <v>50225936695.29492</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50225936695.29492</v>
+        <v>2986969346.445862</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2292690436.797119</v>
+        <v>12400727145.36548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12400727145.36548</v>
+        <v>46952160961.02832</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46952160961.02832</v>
+        <v>2292690436.797119</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1162833677.593262</v>
+        <v>6126499505.560547</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6126499505.560547</v>
+        <v>47453654620.64062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47453654620.64062</v>
+        <v>1162833677.593262</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>417456191.4599609</v>
+        <v>2178970651.81543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2178970651.81543</v>
+        <v>47655831911.74805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47655831911.74805</v>
+        <v>417456191.4599609</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449538980.1430001</v>
+        <v>13346239590.20473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346239590.20473</v>
+        <v>7210886422.392445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7210886422.392445</v>
+        <v>449538980.1430001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1104557952.191101</v>
+        <v>6024696952.450439</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6024696952.450439</v>
+        <v>47629499226.4668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47629499226.4668</v>
+        <v>1104557952.191101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2132827464.24469</v>
+        <v>11542673552.00537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11542673552.00537</v>
+        <v>47428908084.11133</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47428908084.11133</v>
+        <v>2132827464.24469</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2470100168.101196</v>
+        <v>13236449534.06934</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13236449534.06934</v>
+        <v>43027983967.08203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43027983967.08203</v>
+        <v>2470100168.101196</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2719805056.812744</v>
+        <v>14527117179.52979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14527117179.52979</v>
+        <v>42578359388.65039</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42578359388.65039</v>
+        <v>2719805056.812744</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2217885246.074585</v>
+        <v>11917630447.34814</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11917630447.34814</v>
+        <v>42035110180.67578</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42035110180.67578</v>
+        <v>2217885246.074585</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1351959474.433594</v>
+        <v>7391533803.008301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7391533803.008301</v>
+        <v>41422867685.23145</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41422867685.23145</v>
+        <v>1351959474.433594</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1240862141.695007</v>
+        <v>6815628489.344971</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6815628489.344971</v>
+        <v>40781388069.71973</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40781388069.71973</v>
+        <v>1240862141.695007</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1591062974.515503</v>
+        <v>8598097194.091064</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8598097194.091064</v>
+        <v>35902689620.80566</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35902689620.80566</v>
+        <v>1591062974.515503</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2269803933.018005</v>
+        <v>12075972245.5542</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12075972245.5542</v>
+        <v>35391276640.60059</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35391276640.60059</v>
+        <v>2269803933.018005</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2619351570.584351</v>
+        <v>14024680431.0166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14024680431.0166</v>
+        <v>35053302057.125</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35053302057.125</v>
+        <v>2619351570.584351</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602134780.7420015</v>
+        <v>11317587635.00562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317587635.00562</v>
+        <v>22035438296.37484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22035438296.37484</v>
+        <v>602134780.7420015</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2249685958.652039</v>
+        <v>12678849421.8479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12678849421.8479</v>
+        <v>34943639093.26562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34943639093.26562</v>
+        <v>2249685958.652039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1523889191.279297</v>
+        <v>9346187865.375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9346187865.375</v>
+        <v>35082822691.90332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35082822691.90332</v>
+        <v>1523889191.279297</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1214490654.400391</v>
+        <v>7306823610.672852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7306823610.672852</v>
+        <v>30637295286.55176</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30637295286.55176</v>
+        <v>1214490654.400391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1616616871.539246</v>
+        <v>8697912805.371582</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8697912805.371582</v>
+        <v>31168118804.0459</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31168118804.0459</v>
+        <v>1616616871.539246</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1947028064.504578</v>
+        <v>10001389955.48193</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10001389955.48193</v>
+        <v>31778997938.11621</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31778997938.11621</v>
+        <v>1947028064.504578</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1865573648.719788</v>
+        <v>9689749641.873779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9689749641.873779</v>
+        <v>32381565627.03906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32381565627.03906</v>
+        <v>1865573648.719788</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1684306771.944275</v>
+        <v>8917229966.544922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8917229966.544922</v>
+        <v>32902135814.70508</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32902135814.70508</v>
+        <v>1684306771.944275</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1335286572.407532</v>
+        <v>6800515103.499512</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6800515103.499512</v>
+        <v>26716234245.95996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26716234245.95996</v>
+        <v>1335286572.407532</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1378071222.933838</v>
+        <v>6667450502.837158</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6667450502.837158</v>
+        <v>26952985113.62109</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26952985113.62109</v>
+        <v>1378071222.933838</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1326695371.83844</v>
+        <v>6487653179.848389</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6487653179.848389</v>
+        <v>27036974699.41602</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27036974699.41602</v>
+        <v>1326695371.83844</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Offshore wind plants</t>
+  </si>
+  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Photovoltaic plants</t>
-  </si>
-  <si>
-    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980061657.74806</v>
+        <v>1377486416.218049</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25937238858.34505</v>
+        <v>17980061657.74806</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377486416.218049</v>
+        <v>25937238858.34505</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5843023148.154541</v>
+        <v>1082487831.764465</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26984548283.24121</v>
+        <v>5843023148.154541</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1082487831.764465</v>
+        <v>26984548283.24121</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4861414959.802246</v>
+        <v>801987552.0704956</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26821933763.37988</v>
+        <v>4861414959.802246</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>801987552.0704956</v>
+        <v>26821933763.37988</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245593677.47217</v>
+        <v>1729281599.762136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54023068249.90071</v>
+        <v>13245593677.47217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729281599.762136</v>
+        <v>54023068249.90071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164423880.34624</v>
+        <v>535940462.4897327</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81394693561.71643</v>
+        <v>14164423880.34624</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535940462.4897327</v>
+        <v>81394693561.71643</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179251202.87103</v>
+        <v>1316954491.15937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47733692590.85226</v>
+        <v>15179251202.87103</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316954491.15937</v>
+        <v>47733692590.85226</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469159359.16681</v>
+        <v>4284928298.884659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23783876409.46719</v>
+        <v>12469159359.16681</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284928298.884659</v>
+        <v>23783876409.46719</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15231732260.84207</v>
+        <v>2265417721.33449</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14482239894.13876</v>
+        <v>15231732260.84207</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265417721.33449</v>
+        <v>14482239894.13876</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13314995621.93921</v>
+        <v>11327284990.51128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13598925831.19092</v>
+        <v>13314995621.93921</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327284990.51128</v>
+        <v>13598925831.19092</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13701629541.77362</v>
+        <v>5279272837.620033</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9563513078.68457</v>
+        <v>13701629541.77362</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279272837.620033</v>
+        <v>9563513078.68457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13837072694.57019</v>
+        <v>6118462512.465347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7726059148.261627</v>
+        <v>13837072694.57019</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6118462512.465347</v>
+        <v>7726059148.261627</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9108026924.201721</v>
+        <v>7032545485.529816</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10030214862.83565</v>
+        <v>9108026924.201721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7032545485.529816</v>
+        <v>10030214862.83565</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7846528544.909435</v>
+        <v>37117897.44300002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407753480.198209</v>
+        <v>7846528544.909435</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37117897.44300002</v>
+        <v>407753480.198209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11057976825.26596</v>
+        <v>4981504696.194942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18477732309.07109</v>
+        <v>11057976825.26596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4981504696.194942</v>
+        <v>18477732309.07109</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8808325383.986206</v>
+        <v>6789801582.611027</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16051763295.22893</v>
+        <v>8808325383.986206</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6789801582.611027</v>
+        <v>16051763295.22893</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12054608050.53534</v>
+        <v>1438661586.768379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20223313976.99936</v>
+        <v>12054608050.53534</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1438661586.768379</v>
+        <v>20223313976.99936</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15931021725.08926</v>
+        <v>2331923175.882248</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25497331324.39523</v>
+        <v>15931021725.08926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2331923175.882248</v>
+        <v>25497331324.39523</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41286638689.48755</v>
+        <v>7600880144.160187</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>169906047282.5604</v>
+        <v>41286638689.48755</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7600880144.160187</v>
+        <v>169906047282.5604</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41805999978.11307</v>
+        <v>7618111893.073143</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170045236880.7864</v>
+        <v>41805999978.11307</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7618111893.073143</v>
+        <v>170045236880.7864</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42870549428.65295</v>
+        <v>7660560653.637321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170212976762.6241</v>
+        <v>42870549428.65295</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7660560653.637321</v>
+        <v>170212976762.6241</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134659117299.3838</v>
+        <v>24527661371.84265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542140028686.7102</v>
+        <v>134659117299.3838</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24527661371.84265</v>
+        <v>542140028686.7102</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>133978987235.549</v>
+        <v>24581881156.33606</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542363707380.6262</v>
+        <v>133978987235.549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24581881156.33606</v>
+        <v>542363707380.6262</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132238156121.9185</v>
+        <v>24441210486.25618</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542610175473.1624</v>
+        <v>132238156121.9185</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24441210486.25618</v>
+        <v>542610175473.1624</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9671167627.441425</v>
+        <v>676370575.6279999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344203153.385309</v>
+        <v>9671167627.441425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676370575.6279999</v>
+        <v>344203153.385309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132210138460.248</v>
+        <v>24209481399.0683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542872207885.3799</v>
+        <v>132210138460.248</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24209481399.0683</v>
+        <v>542872207885.3799</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132584768694.6096</v>
+        <v>24281441931.50198</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543139758343.312</v>
+        <v>132584768694.6096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24281441931.50198</v>
+        <v>543139758343.312</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118922671394.981</v>
+        <v>21989861184.39011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>518925867728.4536</v>
+        <v>118922671394.981</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21989861184.39011</v>
+        <v>518925867728.4536</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119005978933.8977</v>
+        <v>22061180604.64838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519166238255.1802</v>
+        <v>119005978933.8977</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22061180604.64838</v>
+        <v>519166238255.1802</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118747372563.2222</v>
+        <v>22094700699.5112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519373939624.582</v>
+        <v>118747372563.2222</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22094700699.5112</v>
+        <v>519373939624.582</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118843433696.0486</v>
+        <v>22174060674.64865</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519541422064.0566</v>
+        <v>118843433696.0486</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22174060674.64865</v>
+        <v>519541422064.0566</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118044825709.2292</v>
+        <v>22078382527.9823</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519671066657.4365</v>
+        <v>118044825709.2292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22078382527.9823</v>
+        <v>519671066657.4365</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14135687362.37695</v>
+        <v>2899457871.831177</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85561254707.81934</v>
+        <v>14135687362.37695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2899457871.831177</v>
+        <v>85561254707.81934</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14716303766.68164</v>
+        <v>3438104695.937988</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85694300900.0166</v>
+        <v>14716303766.68164</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3438104695.937988</v>
+        <v>85694300900.0166</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14462912934.11279</v>
+        <v>4136989964.859009</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85919760834.28418</v>
+        <v>14462912934.11279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4136989964.859009</v>
+        <v>85919760834.28418</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7676332671.315521</v>
+        <v>863609747.1737996</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>971096745.3378849</v>
+        <v>7676332671.315521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863609747.1737996</v>
+        <v>971096745.3378849</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14605039176.65405</v>
+        <v>4228106611.271851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>86336596996.82031</v>
+        <v>14605039176.65405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4228106611.271851</v>
+        <v>86336596996.82031</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14564188015.45361</v>
+        <v>4234540750.150513</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87066865596.33203</v>
+        <v>14564188015.45361</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4234540750.150513</v>
+        <v>87066865596.33203</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>106366626.019043</v>
+        <v>368079114.1376953</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6104429757.496094</v>
+        <v>106366626.019043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>368079114.1376953</v>
+        <v>6104429757.496094</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7839114427.345703</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7839114427.345703</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7178317.280212402</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10208368784.37695</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7178317.280212402</v>
+        <v>10208368784.37695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535949661.4343262</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13217426557.96289</v>
+        <v>535949661.4343262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>13217426557.96289</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2366898285.43457</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16783916313.04492</v>
+        <v>2366898285.43457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>16783916313.04492</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5080221659.315186</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20732563066.80078</v>
+        <v>5080221659.315186</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>20732563066.80078</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9610197043.437012</v>
+        <v>582192127.4299316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24803812964.61914</v>
+        <v>9610197043.437012</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>582192127.4299316</v>
+        <v>24803812964.61914</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14111781160.4668</v>
+        <v>2617147274.673401</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28672321039.51953</v>
+        <v>14111781160.4668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2617147274.673401</v>
+        <v>28672321039.51953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10163621845.63424</v>
+        <v>103930112.8404005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2894021473.664189</v>
+        <v>10163621845.63424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103930112.8404005</v>
+        <v>2894021473.664189</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16372704511.07837</v>
+        <v>3109554564.740173</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31969642531.86523</v>
+        <v>16372704511.07837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3109554564.740173</v>
+        <v>31969642531.86523</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22371249248.68652</v>
+        <v>4082149635.009521</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34308248252.00488</v>
+        <v>22371249248.68652</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4082149635.009521</v>
+        <v>34308248252.00488</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32579987299.90698</v>
+        <v>5998355688.518066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35309099915.18164</v>
+        <v>32579987299.90698</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5998355688.518066</v>
+        <v>35309099915.18164</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22295031032.58813</v>
+        <v>4175897329.900452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34638032161.38086</v>
+        <v>22295031032.58813</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4175897329.900452</v>
+        <v>34638032161.38086</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2615003992.208984</v>
+        <v>546375895.8754883</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32053630415.2334</v>
+        <v>2615003992.208984</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>546375895.8754883</v>
+        <v>32053630415.2334</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27461653183.46387</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>27461653183.46387</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>76358883862.57031</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>76358883862.57031</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>83945305519.13574</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>83945305519.13574</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13685030849.47363</v>
+        <v>2641891206.274536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74790695080.16406</v>
+        <v>13685030849.47363</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2641891206.274536</v>
+        <v>74790695080.16406</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13952324453.89111</v>
+        <v>2663860095.967346</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>65235503650.55762</v>
+        <v>13952324453.89111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2663860095.967346</v>
+        <v>65235503650.55762</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9696589980.632721</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3986206616.406919</v>
+        <v>9696589980.632721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3986206616.406919</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7922614098.52002</v>
+        <v>1553537589.201904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56000996165.26465</v>
+        <v>7922614098.52002</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1553537589.201904</v>
+        <v>56000996165.26465</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47762296422.9707</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>47762296422.9707</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33014553651.5918</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>33014553651.5918</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28222135184.86426</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28222135184.86426</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12229914253.34253</v>
+        <v>2600732944.767761</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25516008818.71973</v>
+        <v>12229914253.34253</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2600732944.767761</v>
+        <v>25516008818.71973</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14798144538.20703</v>
+        <v>2833169271.569458</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24910062555.09082</v>
+        <v>14798144538.20703</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2833169271.569458</v>
+        <v>24910062555.09082</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13035203869.19189</v>
+        <v>2159276082.722839</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26274282199.4502</v>
+        <v>13035203869.19189</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2159276082.722839</v>
+        <v>26274282199.4502</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9197482063.753662</v>
+        <v>1209066772.541016</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21405256442.8252</v>
+        <v>9197482063.753662</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1209066772.541016</v>
+        <v>21405256442.8252</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10820980977.68774</v>
+        <v>1567709894.539673</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25791167698.06445</v>
+        <v>10820980977.68774</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1567709894.539673</v>
+        <v>25791167698.06445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14153327385.83569</v>
+        <v>2425021434.102478</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30991519293.03711</v>
+        <v>14153327385.83569</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2425021434.102478</v>
+        <v>30991519293.03711</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614231857.38789</v>
+        <v>445414769.3159997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3868249660.646107</v>
+        <v>11614231857.38789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445414769.3159997</v>
+        <v>3868249660.646107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15290523966.62549</v>
+        <v>2665406066.402283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36453648757.7793</v>
+        <v>15290523966.62549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2665406066.402283</v>
+        <v>36453648757.7793</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16236816404.74976</v>
+        <v>2770522405.754333</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41660871245.68457</v>
+        <v>16236816404.74976</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2770522405.754333</v>
+        <v>41660871245.68457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15706479391.60889</v>
+        <v>2709858231.3255</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40252513676.2041</v>
+        <v>15706479391.60889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2709858231.3255</v>
+        <v>40252513676.2041</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16476339049.99731</v>
+        <v>3098859571.364929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43963075572.18848</v>
+        <v>16476339049.99731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3098859571.364929</v>
+        <v>43963075572.18848</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16695282139.25269</v>
+        <v>3435640184.768127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46791628833.28418</v>
+        <v>16695282139.25269</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3435640184.768127</v>
+        <v>46791628833.28418</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16429303352.32642</v>
+        <v>3326740230.751831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48831228114.2998</v>
+        <v>16429303352.32642</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3326740230.751831</v>
+        <v>48831228114.2998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15993846963.16333</v>
+        <v>2986969346.445862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50225936695.29492</v>
+        <v>15993846963.16333</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2986969346.445862</v>
+        <v>50225936695.29492</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12400727145.36548</v>
+        <v>2292690436.797119</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46952160961.02832</v>
+        <v>12400727145.36548</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2292690436.797119</v>
+        <v>46952160961.02832</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6126499505.560547</v>
+        <v>1162833677.593262</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47453654620.64062</v>
+        <v>6126499505.560547</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1162833677.593262</v>
+        <v>47453654620.64062</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2178970651.81543</v>
+        <v>417456191.4599609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47655831911.74805</v>
+        <v>2178970651.81543</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>417456191.4599609</v>
+        <v>47655831911.74805</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346239590.20473</v>
+        <v>449538980.1430001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7210886422.392445</v>
+        <v>13346239590.20473</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449538980.1430001</v>
+        <v>7210886422.392445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6024696952.450439</v>
+        <v>1104557952.191101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47629499226.4668</v>
+        <v>6024696952.450439</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1104557952.191101</v>
+        <v>47629499226.4668</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11542673552.00537</v>
+        <v>2132827464.24469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47428908084.11133</v>
+        <v>11542673552.00537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2132827464.24469</v>
+        <v>47428908084.11133</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13236449534.06934</v>
+        <v>2470100168.101196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43027983967.08203</v>
+        <v>13236449534.06934</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2470100168.101196</v>
+        <v>43027983967.08203</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14527117179.52979</v>
+        <v>2719805056.812744</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42578359388.65039</v>
+        <v>14527117179.52979</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2719805056.812744</v>
+        <v>42578359388.65039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11917630447.34814</v>
+        <v>2217885246.074585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42035110180.67578</v>
+        <v>11917630447.34814</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2217885246.074585</v>
+        <v>42035110180.67578</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7391533803.008301</v>
+        <v>1351959474.433594</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41422867685.23145</v>
+        <v>7391533803.008301</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1351959474.433594</v>
+        <v>41422867685.23145</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6815628489.344971</v>
+        <v>1240862141.695007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40781388069.71973</v>
+        <v>6815628489.344971</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1240862141.695007</v>
+        <v>40781388069.71973</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8598097194.091064</v>
+        <v>1591062974.515503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35902689620.80566</v>
+        <v>8598097194.091064</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1591062974.515503</v>
+        <v>35902689620.80566</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12075972245.5542</v>
+        <v>2269803933.018005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35391276640.60059</v>
+        <v>12075972245.5542</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2269803933.018005</v>
+        <v>35391276640.60059</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14024680431.0166</v>
+        <v>2619351570.584351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35053302057.125</v>
+        <v>14024680431.0166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2619351570.584351</v>
+        <v>35053302057.125</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317587635.00562</v>
+        <v>602134780.7420015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22035438296.37484</v>
+        <v>11317587635.00562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602134780.7420015</v>
+        <v>22035438296.37484</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12678849421.8479</v>
+        <v>2249685958.652039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34943639093.26562</v>
+        <v>12678849421.8479</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2249685958.652039</v>
+        <v>34943639093.26562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9346187865.375</v>
+        <v>1523889191.279297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35082822691.90332</v>
+        <v>9346187865.375</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1523889191.279297</v>
+        <v>35082822691.90332</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7306823610.672852</v>
+        <v>1214490654.400391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30637295286.55176</v>
+        <v>7306823610.672852</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1214490654.400391</v>
+        <v>30637295286.55176</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8697912805.371582</v>
+        <v>1616616871.539246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31168118804.0459</v>
+        <v>8697912805.371582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1616616871.539246</v>
+        <v>31168118804.0459</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10001389955.48193</v>
+        <v>1947028064.504578</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31778997938.11621</v>
+        <v>10001389955.48193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1947028064.504578</v>
+        <v>31778997938.11621</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9689749641.873779</v>
+        <v>1865573648.719788</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32381565627.03906</v>
+        <v>9689749641.873779</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1865573648.719788</v>
+        <v>32381565627.03906</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8917229966.544922</v>
+        <v>1684306771.944275</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32902135814.70508</v>
+        <v>8917229966.544922</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1684306771.944275</v>
+        <v>32902135814.70508</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6800515103.499512</v>
+        <v>1335286572.407532</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26716234245.95996</v>
+        <v>6800515103.499512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1335286572.407532</v>
+        <v>26716234245.95996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6667450502.837158</v>
+        <v>1378071222.933838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26952985113.62109</v>
+        <v>6667450502.837158</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1378071222.933838</v>
+        <v>26952985113.62109</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6487653179.848389</v>
+        <v>1326695371.83844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27036974699.41602</v>
+        <v>6487653179.848389</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1326695371.83844</v>
+        <v>27036974699.41602</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Photovoltaic plants</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1377486416.218049</v>
+        <v>17980.06165774805</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980061657.74806</v>
+        <v>25937.23885834507</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25937238858.34505</v>
+        <v>1377.486416218049</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1082487831.764465</v>
+        <v>5843.02314815484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5843023148.154541</v>
+        <v>26984.54828323983</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26984548283.24121</v>
+        <v>1082.487831764505</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>801987552.0704956</v>
+        <v>4861.414959801361</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4861414959.802246</v>
+        <v>26821.93376338109</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26821933763.37988</v>
+        <v>801.9875520704663</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1729281599.762136</v>
+        <v>13245.59367747219</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245593677.47217</v>
+        <v>54023.06824990072</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54023068249.90071</v>
+        <v>1729.281599762135</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535940462.4897327</v>
+        <v>14164.42388034624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164423880.34624</v>
+        <v>81394.69356171643</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81394693561.71643</v>
+        <v>535.9404624897343</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1316954491.15937</v>
+        <v>15179.25120287106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179251202.87103</v>
+        <v>47733.6925908523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47733692590.85226</v>
+        <v>1316.95449115937</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4284928298.884659</v>
+        <v>12469.15935916681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469159359.16681</v>
+        <v>23783.87640946719</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23783876409.46719</v>
+        <v>4284.928298884661</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2265417721.33449</v>
+        <v>15231.73226084205</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15231732260.84207</v>
+        <v>14482.23989413877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14482239894.13876</v>
+        <v>2265.417721334492</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11327284990.51128</v>
+        <v>13314.99562193922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13314995621.93921</v>
+        <v>13598.92583119083</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13598925831.19092</v>
+        <v>11327.28499051128</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5279272837.620033</v>
+        <v>13701.62954177361</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13701629541.77362</v>
+        <v>9563.513078684628</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9563513078.68457</v>
+        <v>5279.272837620032</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6118462512.465347</v>
+        <v>13837.0726945702</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13837072694.57019</v>
+        <v>7726.059148261615</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7726059148.261627</v>
+        <v>6118.462512465347</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7032545485.529816</v>
+        <v>9108.026924201695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9108026924.201721</v>
+        <v>10030.21486283562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10030214862.83565</v>
+        <v>7032.545485529809</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37117897.44300002</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846528544.909435</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407753480.198209</v>
+        <v>37.117897443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4981504696.194942</v>
+        <v>11057.97682526597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11057976825.26596</v>
+        <v>18477.7323090711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18477732309.07109</v>
+        <v>4981.504696194948</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6789801582.611027</v>
+        <v>8808.325383986172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8808325383.986206</v>
+        <v>16051.76329522894</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16051763295.22893</v>
+        <v>6789.801582611035</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1438661586.768379</v>
+        <v>12054.60805053535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12054608050.53534</v>
+        <v>20223.31397699933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20223313976.99936</v>
+        <v>1438.661586768372</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2331923175.882248</v>
+        <v>15931.02172508923</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15931021725.08926</v>
+        <v>25497.33132439523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25497331324.39523</v>
+        <v>2331.92317588225</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7600880144.160187</v>
+        <v>41286.63868948756</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41286638689.48755</v>
+        <v>169906.0472825604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>169906047282.5604</v>
+        <v>7600.880144160183</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7618111893.073143</v>
+        <v>41805.99997811319</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41805999978.11307</v>
+        <v>170045.2368807865</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170045236880.7864</v>
+        <v>7618.111893073146</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7660560653.637321</v>
+        <v>42870.5494286528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42870549428.65295</v>
+        <v>170212.9767626241</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170212976762.6241</v>
+        <v>7660.560653637316</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24527661371.84265</v>
+        <v>134659.1172993838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>134659117299.3838</v>
+        <v>542140.0286867102</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542140028686.7102</v>
+        <v>24527.66137184265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24581881156.33606</v>
+        <v>133978.987235549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133978987235.549</v>
+        <v>542363.7073806264</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542363707380.6262</v>
+        <v>24581.88115633607</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24441210486.25618</v>
+        <v>132238.1561219183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132238156121.9185</v>
+        <v>542610.1754731622</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542610175473.1624</v>
+        <v>24441.2104862562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>676370575.6279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671167627.441425</v>
+        <v>344.2031533853096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344203153.385309</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24209481399.0683</v>
+        <v>132210.1384602481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132210138460.248</v>
+        <v>542872.2078853804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542872207885.3799</v>
+        <v>24209.48139906829</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24281441931.50198</v>
+        <v>132584.7686946098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132584768694.6096</v>
+        <v>543139.758343312</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543139758343.312</v>
+        <v>24281.44193150196</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21989861184.39011</v>
+        <v>118922.671394981</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118922671394.981</v>
+        <v>518925.8677284536</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>518925867728.4536</v>
+        <v>21989.86118439015</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22061180604.64838</v>
+        <v>119005.9789338978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>119005978933.8977</v>
+        <v>519166.2382551804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519166238255.1802</v>
+        <v>22061.1806046484</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22094700699.5112</v>
+        <v>118747.3725632222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118747372563.2222</v>
+        <v>519373.9396245815</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519373939624.582</v>
+        <v>22094.70069951119</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22174060674.64865</v>
+        <v>118843.4336960486</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118843433696.0486</v>
+        <v>519541.4220640557</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519541422064.0566</v>
+        <v>22174.06067464864</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22078382527.9823</v>
+        <v>118044.8257092291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118044825709.2292</v>
+        <v>519671.0666574389</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519671066657.4365</v>
+        <v>22078.38252798235</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2899457871.831177</v>
+        <v>14135.68736237683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14135687362.37695</v>
+        <v>85561.25470781978</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85561254707.81934</v>
+        <v>2899.457871831139</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3438104695.937988</v>
+        <v>14716.30376668205</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14716303766.68164</v>
+        <v>85694.30090001505</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85694300900.0166</v>
+        <v>3438.104695937946</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4136989964.859009</v>
+        <v>14462.9129341126</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14462912934.11279</v>
+        <v>85919.76083428413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85919760834.28418</v>
+        <v>4136.989964859036</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>863609747.1737996</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676332671.315521</v>
+        <v>971.0967453378844</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971096745.3378849</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4228106611.271851</v>
+        <v>14605.0391766543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14605039176.65405</v>
+        <v>86336.59699682053</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>86336596996.82031</v>
+        <v>4228.106611271796</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4234540750.150513</v>
+        <v>14564.18801545328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14564188015.45361</v>
+        <v>87066.86559633166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87066865596.33203</v>
+        <v>4234.540750150569</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>368079114.1376953</v>
+        <v>106.3666260191239</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>106366626.019043</v>
+        <v>6104.429757496342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6104429757.496094</v>
+        <v>368.0791141376831</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7839.114427346736</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7839114427.345703</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7178317.280212402</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10208.36878437549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10208368784.37695</v>
+        <v>7.178317280195188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>535.9496614346281</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535949661.4343262</v>
+        <v>13217.42655796278</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13217426557.96289</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2366.898285434814</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2366898285.43457</v>
+        <v>16783.91631304473</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16783916313.04492</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5080.221659314586</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5080221659.315186</v>
+        <v>20732.56306680106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20732563066.80078</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>582192127.4299316</v>
+        <v>9610.197043437278</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9610197043.437012</v>
+        <v>24803.81296462007</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24803812964.61914</v>
+        <v>582.192127429822</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2617147274.673401</v>
+        <v>14111.78116046684</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14111781160.4668</v>
+        <v>28672.3210395202</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28672321039.51953</v>
+        <v>2617.147274673451</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103930112.8404005</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163621845.63424</v>
+        <v>2894.021473664189</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894021473.664189</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3109554564.740173</v>
+        <v>16372.70451107831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16372704511.07837</v>
+        <v>31969.64253186435</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31969642531.86523</v>
+        <v>3109.554564740101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4082149635.009521</v>
+        <v>22371.24924868671</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22371249248.68652</v>
+        <v>34308.24825200438</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34308248252.00488</v>
+        <v>4082.149635009584</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5998355688.518066</v>
+        <v>32579.98729990679</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32579987299.90698</v>
+        <v>35309.09991518222</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35309099915.18164</v>
+        <v>5998.35568851803</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4175897329.900452</v>
+        <v>22295.03103258833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22295031032.58813</v>
+        <v>34638.03216138016</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34638032161.38086</v>
+        <v>4175.89732990053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>546375895.8754883</v>
+        <v>2615.003992208745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2615003992.208984</v>
+        <v>32053.63041523378</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32053630415.2334</v>
+        <v>546.3758958755061</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27461.65318346396</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27461653183.46387</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>76358.88386257086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>76358883862.57031</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>83945.30551913474</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>83945305519.13574</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2641891206.274536</v>
+        <v>13685.03084947355</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13685030849.47363</v>
+        <v>74790.69508016482</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>74790695080.16406</v>
+        <v>2641.891206274508</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2663860095.967346</v>
+        <v>13952.32445389102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13952324453.89111</v>
+        <v>65235.50365055632</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>65235503650.55762</v>
+        <v>2663.860095967422</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9696.589980632714</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696589980.632721</v>
+        <v>3986.206616406919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986206616.406919</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1553537589.201904</v>
+        <v>7922.614098520251</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7922614098.52002</v>
+        <v>56000.9961652644</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>56000996165.26465</v>
+        <v>1553.537589201878</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>47762.29642297141</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47762296422.9707</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>33014.55365159176</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33014553651.5918</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>28222.13518486358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28222135184.86426</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2600732944.767761</v>
+        <v>12229.9142533422</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12229914253.34253</v>
+        <v>25516.00881872047</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25516008818.71973</v>
+        <v>2600.732944767748</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2833169271.569458</v>
+        <v>14798.14453820721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14798144538.20703</v>
+        <v>24910.06255509146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24910062555.09082</v>
+        <v>2833.169271569524</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2159276082.722839</v>
+        <v>13035.20386919216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13035203869.19189</v>
+        <v>26274.28219944891</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26274282199.4502</v>
+        <v>2159.276082722819</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1209066772.541016</v>
+        <v>9197.48206375353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9197482063.753662</v>
+        <v>21405.25644282531</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21405256442.8252</v>
+        <v>1209.066772540973</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1567709894.539673</v>
+        <v>10820.98097768775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10820980977.68774</v>
+        <v>25791.16769806482</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25791167698.06445</v>
+        <v>1567.709894539672</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2425021434.102478</v>
+        <v>14153.32738583558</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14153327385.83569</v>
+        <v>30991.51929303817</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30991519293.03711</v>
+        <v>2425.021434102498</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445414769.3159997</v>
+        <v>11614.23185738787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614231857.38789</v>
+        <v>3868.249660646108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868249660.646107</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2665406066.402283</v>
+        <v>15290.52396662603</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15290523966.62549</v>
+        <v>36453.64875777904</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36453648757.7793</v>
+        <v>2665.406066402327</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2770522405.754333</v>
+        <v>16236.81640474941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16236816404.74976</v>
+        <v>41660.87124568503</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41660871245.68457</v>
+        <v>2770.522405754251</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2709858231.3255</v>
+        <v>15706.47939160885</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15706479391.60889</v>
+        <v>40252.51367620472</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40252513676.2041</v>
+        <v>2709.858231325517</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3098859571.364929</v>
+        <v>16476.33904999681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16476339049.99731</v>
+        <v>43963.07557218801</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43963075572.18848</v>
+        <v>3098.859571364941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3435640184.768127</v>
+        <v>16695.2821392531</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16695282139.25269</v>
+        <v>46791.62883328274</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46791628833.28418</v>
+        <v>3435.640184768185</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3326740230.751831</v>
+        <v>16429.30335232639</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16429303352.32642</v>
+        <v>48831.22811430041</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48831228114.2998</v>
+        <v>3326.740230751806</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2986969346.445862</v>
+        <v>15993.8469631637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15993846963.16333</v>
+        <v>50225.93669529539</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50225936695.29492</v>
+        <v>2986.969346445811</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2292690436.797119</v>
+        <v>12400.72714536497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12400727145.36548</v>
+        <v>46952.16096102912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46952160961.02832</v>
+        <v>2292.690436797158</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1162833677.593262</v>
+        <v>6126.499505560612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6126499505.560547</v>
+        <v>47453.65462064091</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47453654620.64062</v>
+        <v>1162.833677593211</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>417456191.4599609</v>
+        <v>2178.970651815645</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2178970651.81543</v>
+        <v>47655.83191174548</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47655831911.74805</v>
+        <v>417.4561914600199</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449538980.1430001</v>
+        <v>13346.23959020476</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346239590.20473</v>
+        <v>7210.886422392445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7210886422.392445</v>
+        <v>449.5389801430001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1104557952.191101</v>
+        <v>6024.696952450089</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6024696952.450439</v>
+        <v>47629.49922646768</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47629499226.4668</v>
+        <v>1104.557952191157</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2132827464.24469</v>
+        <v>11542.67355200578</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11542673552.00537</v>
+        <v>47428.90808411129</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47428908084.11133</v>
+        <v>2132.827464244619</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2470100168.101196</v>
+        <v>13236.44953406905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13236449534.06934</v>
+        <v>43027.98396708071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43027983967.08203</v>
+        <v>2470.100168101315</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2719805056.812744</v>
+        <v>14527.11717952997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14527117179.52979</v>
+        <v>42578.35938865133</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42578359388.65039</v>
+        <v>2719.805056812591</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2217885246.074585</v>
+        <v>11917.63044734765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11917630447.34814</v>
+        <v>42035.11018067691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42035110180.67578</v>
+        <v>2217.885246074642</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1351959474.433594</v>
+        <v>7391.53380300873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7391533803.008301</v>
+        <v>41422.86768523045</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41422867685.23145</v>
+        <v>1351.959474433563</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1240862141.695007</v>
+        <v>6815.628489345312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6815628489.344971</v>
+        <v>40781.38806972001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40781388069.71973</v>
+        <v>1240.862141694932</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1591062974.515503</v>
+        <v>8598.097194090718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8598097194.091064</v>
+        <v>35902.68962080684</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35902689620.80566</v>
+        <v>1591.062974515662</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2269803933.018005</v>
+        <v>12075.97224555421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12075972245.5542</v>
+        <v>35391.27664060052</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35391276640.60059</v>
+        <v>2269.803933017945</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2619351570.584351</v>
+        <v>14024.68043101695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14024680431.0166</v>
+        <v>35053.30205712561</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35053302057.125</v>
+        <v>2619.351570584287</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602134780.7420015</v>
+        <v>11317.58763500561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317587635.00562</v>
+        <v>22035.43829637484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22035438296.37484</v>
+        <v>602.1347807420011</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2249685958.652039</v>
+        <v>12678.84942184761</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12678849421.8479</v>
+        <v>34943.63909326307</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34943639093.26562</v>
+        <v>2249.685958652117</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1523889191.279297</v>
+        <v>9346.187865375075</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9346187865.375</v>
+        <v>35082.82269190438</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35082822691.90332</v>
+        <v>1523.889191279188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1214490654.400391</v>
+        <v>7306.823610672262</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7306823610.672852</v>
+        <v>30637.29528655112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30637295286.55176</v>
+        <v>1214.490654400433</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1616616871.539246</v>
+        <v>8697.912805371918</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8697912805.371582</v>
+        <v>31168.11880404688</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31168118804.0459</v>
+        <v>1616.616871539271</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1947028064.504578</v>
+        <v>10001.38995548245</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10001389955.48193</v>
+        <v>31778.99793811515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31778997938.11621</v>
+        <v>1947.028064504499</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1865573648.719788</v>
+        <v>9689.749641873874</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9689749641.873779</v>
+        <v>32381.56562704034</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32381565627.03906</v>
+        <v>1865.573648719874</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1684306771.944275</v>
+        <v>8917.229966544081</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8917229966.544922</v>
+        <v>32902.135814704</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32902135814.70508</v>
+        <v>1684.306771944277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1335286572.407532</v>
+        <v>6800.515103499405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6800515103.499512</v>
+        <v>26716.23424595967</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26716234245.95996</v>
+        <v>1335.286572407582</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1378071222.933838</v>
+        <v>6667.450502837542</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6667450502.837158</v>
+        <v>26952.98511362262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26952985113.62109</v>
+        <v>1378.071222933766</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1326695371.83844</v>
+        <v>6487.653179848567</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6487653179.848389</v>
+        <v>27036.97469941527</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27036974699.41602</v>
+        <v>1326.695371838461</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -149,10 +149,10 @@
     <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980.06165774805</v>
+        <v>17980.0616577483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25937.23885834507</v>
+        <v>1377.48641621805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377.486416218049</v>
+        <v>25937.39935611217</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5843.02314815484</v>
+        <v>93246.40973934531</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26984.54828323983</v>
+        <v>16703.51099402242</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1082.487831764505</v>
+        <v>289026.847540997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4861.414959801361</v>
+        <v>113083.6936244303</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26821.93376338109</v>
+        <v>20179.25231307908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>801.9875520704663</v>
+        <v>296988.627237035</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245.59367747219</v>
+        <v>13245.5936774787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54023.06824990072</v>
+        <v>1729.281599762185</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729.281599762135</v>
+        <v>54023.47858586391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164.42388034624</v>
+        <v>14164.42388046504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81394.69356171643</v>
+        <v>535.9404624908193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535.9404624897343</v>
+        <v>81395.65130316232</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179.25120287106</v>
+        <v>15179.25120447073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47733.6925908523</v>
+        <v>1316.954491176508</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316.95449115937</v>
+        <v>47735.7756411836</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469.15935916681</v>
+        <v>12469.15937598285</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23783.87640946719</v>
+        <v>4284.92829909301</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284.928298884661</v>
+        <v>23788.17139442798</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15231.73226084205</v>
+        <v>15231.7324049187</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14482.23989413877</v>
+        <v>2265.417723368202</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265.417721334492</v>
+        <v>14490.7428737302</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13314.99562193922</v>
+        <v>13314.9966614696</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13598.92583119083</v>
+        <v>11327.28500698648</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.28499051128</v>
+        <v>13615.22147508524</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13701.62954177361</v>
+        <v>13701.63602067638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9563.513078684628</v>
+        <v>5279.272951374514</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279.272837620032</v>
+        <v>9593.826922069071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13837.0726945702</v>
+        <v>13837.10828642841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7726.059148261615</v>
+        <v>6118.463196489462</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6118.462512465347</v>
+        <v>7780.730833594003</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9108.026924201695</v>
+        <v>9108.202091906802</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10030.21486283562</v>
+        <v>7032.549131518725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7032.545485529809</v>
+        <v>10125.60574006873</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407.7534801982089</v>
+        <v>37.117897443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.117897443</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11057.97682526597</v>
+        <v>11058.75951699464</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18477.7323090711</v>
+        <v>4981.52217648067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4981.504696194948</v>
+        <v>18638.56059409605</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8808.325383986172</v>
+        <v>8811.535525649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16051.76329522894</v>
+        <v>6789.877889009702</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6789.801582611035</v>
+        <v>16313.83824327039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12054.60805053535</v>
+        <v>12066.80230185518</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20223.31397699933</v>
+        <v>1438.967972951417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1438.661586768372</v>
+        <v>20636.60881117872</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15931.02172508923</v>
+        <v>15974.2227389086</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25497.33132439523</v>
+        <v>2333.064198669672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2331.92317588225</v>
+        <v>26129.29309581878</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41286.63868948756</v>
+        <v>41429.93709705689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>169906.0472825604</v>
+        <v>7604.845983196421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7600.880144160183</v>
+        <v>170844.9866638308</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41805.99997811319</v>
+        <v>42250.03689584011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170045.2368807865</v>
+        <v>7631.010788281448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7618.111893073146</v>
+        <v>171403.558877209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42870.5494286528</v>
+        <v>44134.68614516291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170212.9767626241</v>
+        <v>7699.624353930667</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7660.560653637316</v>
+        <v>172129.9034743916</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134659.1172993838</v>
+        <v>137807.9032652169</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542140.0286867102</v>
+        <v>24635.33863778523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24527.66137184265</v>
+        <v>544783.3566043002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>133978.987235549</v>
+        <v>140163.7220781688</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542363.7073806264</v>
+        <v>24836.2466827473</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24581.88115633607</v>
+        <v>545930.1049050423</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132238.1561219183</v>
+        <v>140778.7097774906</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542610.1754731622</v>
+        <v>24896.48405762948</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24441.2104862562</v>
+        <v>547323.4810976656</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344.2031533853096</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676.3705756279999</v>
+        <v>344.2031533853096</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132210.1384602481</v>
+        <v>141365.6798151446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542872.2078853804</v>
+        <v>24724.99234532384</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24209.48139906829</v>
+        <v>548979.149184986</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132584.7686946098</v>
+        <v>142327.2800871753</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543139.758343312</v>
+        <v>24625.46116545211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24281.44193150196</v>
+        <v>550902.780121367</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118922.671394981</v>
+        <v>129626.7830596613</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>518925.8677284536</v>
+        <v>22234.34923847017</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21989.86118439015</v>
+        <v>528613.1624990054</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119005.9789338978</v>
+        <v>130723.4374727849</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519166.2382551804</v>
+        <v>22454.81513320198</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22061.1806046484</v>
+        <v>531039.4888279522</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118747.3725632222</v>
+        <v>131561.4855174678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519373.9396245815</v>
+        <v>22708.80112284236</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22094.70069951119</v>
+        <v>533674.9846049584</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118843.4336960486</v>
+        <v>132495.5947055947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519541.4220640557</v>
+        <v>23042.14708784607</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22174.06067464864</v>
+        <v>536480.1221441217</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118044.8257092291</v>
+        <v>132631.095954861</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519671.0666574389</v>
+        <v>23279.81490724155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22078.38252798235</v>
+        <v>539418.0249788174</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14135.68736237683</v>
+        <v>28857.45906381309</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85561.25470781978</v>
+        <v>4338.558075202745</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2899.457871831139</v>
+        <v>108250.5498425951</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14716.30376668205</v>
+        <v>28871.76834248309</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85694.30090001505</v>
+        <v>5053.365950429055</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3438.104695937946</v>
+        <v>111442.6290638568</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14462.9129341126</v>
+        <v>28632.69012625515</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85919.76083428413</v>
+        <v>6467.059176033887</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4136.989964859036</v>
+        <v>114868.6889942084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>971.0967453378844</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863.6097471737995</v>
+        <v>971.096746488053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14605.0391766543</v>
+        <v>28535.75068869232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>86336.59699682053</v>
+        <v>7971.869364188926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4228.106611271796</v>
+        <v>118723.1178253815</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14564.18801545328</v>
+        <v>28398.00506606256</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87066.86559633166</v>
+        <v>9483.114863605646</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4234.540750150569</v>
+        <v>123323.1832260797</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>106.3666260191239</v>
+        <v>13802.59201180097</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6104.429757496342</v>
+        <v>7127.902878181601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>368.0791141376831</v>
+        <v>46980.97871882655</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13019.26795457373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7839.114427346736</v>
+        <v>6271.911027000519</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>54536.26650927961</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>11901.39166198391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10208.36878437549</v>
+        <v>6147.744838961691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.178317280195188</v>
+        <v>64493.9857351277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535.9496614346281</v>
+        <v>11734.75628859899</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13217.42655796278</v>
+        <v>5663.087655240088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>77502.36979058571</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2366.898285434814</v>
+        <v>13411.72326413076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16783.91631304473</v>
+        <v>4930.963215021358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>94128.65424345247</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5080.221659314586</v>
+        <v>17834.86132360157</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20732.56306680106</v>
+        <v>4218.720455380389</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>114766.1854977701</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9610.197043437278</v>
+        <v>26867.01707701222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24803.81296462007</v>
+        <v>4673.902392518474</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>582.192127429822</v>
+        <v>139550.1018296313</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14111.78116046684</v>
+        <v>40573.87891603122</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28672.3210395202</v>
+        <v>7170.400835869019</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2617.147274673451</v>
+        <v>168291.4507868402</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2894.021473664189</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103.9301128404004</v>
+        <v>2894.021544097108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16372.70451107831</v>
+        <v>56875.96832404984</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31969.64253186435</v>
+        <v>10172.66985368647</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3109.554564740101</v>
+        <v>200433.9568257844</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22371.24924868671</v>
+        <v>79713.19230754604</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34308.24825200438</v>
+        <v>14171.73919489956</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4082.149635009584</v>
+        <v>235034.7855069563</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32579.98729990679</v>
+        <v>113391.002435145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35309.09991518222</v>
+        <v>20121.57985971536</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5998.35568851803</v>
+        <v>270772.9004142154</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22295.03103258833</v>
+        <v>137143.2488815596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34638.03216138016</v>
+        <v>24278.87709211878</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4175.89732990053</v>
+        <v>305993.8704679646</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2615.003992208745</v>
+        <v>140919.1303381259</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32053.63041523378</v>
+        <v>24797.87994897657</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>546.3758958755061</v>
+        <v>338802.6885313122</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>140364.853352136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27461.65318346396</v>
+        <v>24513.6453560954</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>367211.2219714541</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>138072.4627459277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>76358.88386257086</v>
+        <v>23922.35852248414</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>444729.8063456556</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>133877.0125689539</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>83945.30551913474</v>
+        <v>23078.92342388182</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>474675.1179391397</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13685.03084947355</v>
+        <v>147819.1016129162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74790.69508016482</v>
+        <v>25702.1295786259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2641.891206274508</v>
+        <v>480056.1880148295</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13952.32445389102</v>
+        <v>144412.7540196031</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>65235.50365055632</v>
+        <v>25191.24782679521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2663.860095967422</v>
+        <v>476179.9400960356</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3986.206616406919</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.273736754432321E-13</v>
+        <v>3986.207392154894</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7922.614098520251</v>
+        <v>134832.7165260871</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56000.9961652644</v>
+        <v>23622.75997544691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1553.537589201878</v>
+        <v>463408.6979792826</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>112004.4042513976</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47762.29642297141</v>
+        <v>19719.92929678276</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>442790.5827445015</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>73795.48136751889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33014.55365159176</v>
+        <v>13172.928060968</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>407882.2723031742</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>48312.62019123905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28222.13518486358</v>
+        <v>9307.042865940137</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>376770.0475733979</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12229.9142533422</v>
+        <v>44098.92081345385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25516.00881872047</v>
+        <v>9710.095711192291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2600.732944767748</v>
+        <v>343590.6094669309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14798.14453820721</v>
+        <v>42488.12843766063</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24910.06255509146</v>
+        <v>10669.3237703669</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2833.169271569524</v>
+        <v>310562.6568837399</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13035.20386919216</v>
+        <v>39054.56857533008</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26274.28219944891</v>
+        <v>10988.45316497423</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2159.276082722819</v>
+        <v>279792.9122626502</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9197.48206375353</v>
+        <v>31665.31173904869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21405.25644282531</v>
+        <v>9981.124033130938</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1209.066772540973</v>
+        <v>245199.5946550881</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10820.98097768775</v>
+        <v>27741.92608064157</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25791.16769806482</v>
+        <v>9057.812344232458</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1567.709894539672</v>
+        <v>224138.1456989655</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14153.32738583558</v>
+        <v>27136.38837669045</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30991.51929303817</v>
+        <v>8540.318178685673</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2425.021434102498</v>
+        <v>209642.8989516739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3868.249660646108</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445.4147693159996</v>
+        <v>3868.253987352055</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15290.52396662603</v>
+        <v>28172.92938194727</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36453.64875777904</v>
+        <v>8143.007129061152</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2665.406066402327</v>
+        <v>202122.675160653</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16236.81640474941</v>
+        <v>31369.08409569901</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41660.87124568503</v>
+        <v>7800.93066152354</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2770.522405754251</v>
+        <v>201440.8977118609</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15706.47939160885</v>
+        <v>36154.03709277534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40252.51367620472</v>
+        <v>7604.621723266668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2709.858231325517</v>
+        <v>201053.5226023905</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16476.33904999681</v>
+        <v>46405.77604592149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43963.07557218801</v>
+        <v>8646.951464725891</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3098.859571364941</v>
+        <v>212056.1008548765</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16695.2821392531</v>
+        <v>60910.85714576324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46791.62883328274</v>
+        <v>10929.19267985766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3435.640184768185</v>
+        <v>227516.6548147621</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16429.30335232639</v>
+        <v>79515.27367432276</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48831.22811430041</v>
+        <v>14225.35110606445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3326.740230751806</v>
+        <v>246467.1014811341</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15993.8469631637</v>
+        <v>101850.4044743106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50225.93669529539</v>
+        <v>18178.79885331733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2986.969346445811</v>
+        <v>267972.5286871754</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12400.72714536497</v>
+        <v>124235.5888574468</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46952.16096102912</v>
+        <v>22087.65819319332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2292.690436797158</v>
+        <v>286960.1484984839</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6126.499505560612</v>
+        <v>142181.0744933628</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47453.65462064091</v>
+        <v>25184.86602215789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1162.833677593211</v>
+        <v>310856.7331001498</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2178.970651815645</v>
+        <v>150068.8194190548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47655.83191174548</v>
+        <v>26456.38481905893</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>417.4561914600199</v>
+        <v>334593.174584426</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7210.886422392445</v>
+        <v>449.5389801430001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449.5389801430001</v>
+        <v>7210.903606480411</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6024.696952450089</v>
+        <v>151082.5998610472</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47629.49922646768</v>
+        <v>26489.38122109073</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1104.557952191157</v>
+        <v>357269.4543738905</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11542.67355200578</v>
+        <v>150341.7700468951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47428.90808411129</v>
+        <v>26241.93551949511</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2132.827464244619</v>
+        <v>378009.8295170134</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13236.44953406905</v>
+        <v>149241.1399997193</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43027.98396708071</v>
+        <v>26003.74958674092</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2470.100168101315</v>
+        <v>391926.2133598709</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14527.11717952997</v>
+        <v>149912.2737858298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42578.35938865133</v>
+        <v>26190.38386571186</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2719.805056812591</v>
+        <v>406407.856819489</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11917.63044734765</v>
+        <v>145896.8676733745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42035.11018067691</v>
+        <v>25609.37916994363</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2217.885246074642</v>
+        <v>416782.307906053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7391.53380300873</v>
+        <v>132399.7456258365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41422.86768523045</v>
+        <v>23387.09912049107</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1351.959474433563</v>
+        <v>422621.1218748111</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6815.628489345312</v>
+        <v>110808.666173354</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40781.38806972001</v>
+        <v>19819.03012121067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1240.862141694932</v>
+        <v>423727.6855345946</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8598.097194090718</v>
+        <v>84311.56524662836</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35902.68962080684</v>
+        <v>15546.06206161657</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1591.062974515662</v>
+        <v>415913.4078259328</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12075.97224555421</v>
+        <v>64035.20587011613</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35391.27664060052</v>
+        <v>12652.13854796975</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2269.803933017945</v>
+        <v>408084.7556957621</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14024.68043101695</v>
+        <v>54045.11391635309</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35053.30205712561</v>
+        <v>11821.59041848371</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2619.351570584287</v>
+        <v>396636.9422268663</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22035.43829637484</v>
+        <v>602.1347807420011</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602.1347807420011</v>
+        <v>22035.49449861568</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12678.84942184761</v>
+        <v>49950.12312612776</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34943.63909326307</v>
+        <v>12050.73416767706</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2249.685958652117</v>
+        <v>382475.0241808323</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9346.187865375075</v>
+        <v>46195.89832438342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35082.82269190438</v>
+        <v>12069.06862903899</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1523.889191279188</v>
+        <v>366671.2955446905</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7306.823610672262</v>
+        <v>40678.21968770353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30637.29528655112</v>
+        <v>11327.39169311128</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1214.490654400433</v>
+        <v>345557.2209573006</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8697.912805371918</v>
+        <v>37598.31807951676</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31168.11880404688</v>
+        <v>10610.85658072308</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1616.616871539271</v>
+        <v>329868.0930655925</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10001.38995548245</v>
+        <v>37102.73434850341</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31778.99793811515</v>
+        <v>10068.75113772223</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1947.028064504499</v>
+        <v>315789.1930260565</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9689.749641873874</v>
+        <v>39008.36830023071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32381.56562704034</v>
+        <v>9760.532456565474</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1865.573648719874</v>
+        <v>304138.2538976893</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8917.229966544081</v>
+        <v>43284.22448518127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32902.135814704</v>
+        <v>9727.574615039804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1684.306771944277</v>
+        <v>295518.5454317741</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6800.515103499405</v>
+        <v>48830.83874535188</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26716.23424595967</v>
+        <v>9891.286139078322</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1335.286572407582</v>
+        <v>283730.137487134</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6667.450502837542</v>
+        <v>59879.74163725739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26952.98511362262</v>
+        <v>11228.72629238444</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1378.071222933766</v>
+        <v>282075.9901500754</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6487.653179848567</v>
+        <v>74975.14975215448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27036.97469941527</v>
+        <v>13574.68871440721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1326.695371838461</v>
+        <v>283922.7709373888</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Photovoltaic plants</t>
+  </si>
+  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Offshore wind plants</t>
-  </si>
-  <si>
-    <t>Photovoltaic plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980.0616577483</v>
+        <v>25937.39935611217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1377.48641621805</v>
+        <v>17980.0616577483</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25937.39935611217</v>
+        <v>1377.48641621805</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>93246.40973934531</v>
+        <v>289026.847540997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16703.51099402242</v>
+        <v>93246.40973934531</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>289026.847540997</v>
+        <v>16703.51099402242</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>113083.6936244303</v>
+        <v>296988.627237035</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20179.25231307908</v>
+        <v>113083.6936244303</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>296988.627237035</v>
+        <v>20179.25231307908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245.5936774787</v>
+        <v>54023.47858586391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1729.281599762185</v>
+        <v>13245.5936774787</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54023.47858586391</v>
+        <v>1729.281599762185</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164.42388046504</v>
+        <v>81395.65130316232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535.9404624908193</v>
+        <v>14164.42388046504</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81395.65130316232</v>
+        <v>535.9404624908193</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179.25120447073</v>
+        <v>47735.7756411836</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1316.954491176508</v>
+        <v>15179.25120447073</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47735.7756411836</v>
+        <v>1316.954491176508</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469.15937598285</v>
+        <v>23788.17139442798</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4284.92829909301</v>
+        <v>12469.15937598285</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23788.17139442798</v>
+        <v>4284.92829909301</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15231.7324049187</v>
+        <v>14490.7428737302</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2265.417723368202</v>
+        <v>15231.7324049187</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14490.7428737302</v>
+        <v>2265.417723368202</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13314.9966614696</v>
+        <v>13615.22147508524</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.28500698648</v>
+        <v>13314.9966614696</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13615.22147508524</v>
+        <v>11327.28500698648</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13701.63602067638</v>
+        <v>9593.826922069071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5279.272951374514</v>
+        <v>13701.63602067638</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9593.826922069071</v>
+        <v>5279.272951374514</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13837.10828642841</v>
+        <v>7780.730833594003</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6118.463196489462</v>
+        <v>13837.10828642841</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7780.730833594003</v>
+        <v>6118.463196489462</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9108.202091906802</v>
+        <v>10125.60574006873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7032.549131518725</v>
+        <v>9108.202091906802</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10125.60574006873</v>
+        <v>7032.549131518725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7846.528544909441</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.117897443</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407.7534801982089</v>
+        <v>37.117897443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11058.75951699464</v>
+        <v>18638.56059409605</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4981.52217648067</v>
+        <v>11058.75951699464</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18638.56059409605</v>
+        <v>4981.52217648067</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8811.535525649</v>
+        <v>16313.83824327039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6789.877889009702</v>
+        <v>8811.535525649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16313.83824327039</v>
+        <v>6789.877889009702</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12066.80230185518</v>
+        <v>20636.60881117872</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1438.967972951417</v>
+        <v>12066.80230185518</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20636.60881117872</v>
+        <v>1438.967972951417</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15974.2227389086</v>
+        <v>26129.29309581878</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2333.064198669672</v>
+        <v>15974.2227389086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26129.29309581878</v>
+        <v>2333.064198669672</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41429.93709705689</v>
+        <v>170844.9866638308</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7604.845983196421</v>
+        <v>41429.93709705689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170844.9866638308</v>
+        <v>7604.845983196421</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42250.03689584011</v>
+        <v>171403.558877209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7631.010788281448</v>
+        <v>42250.03689584011</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171403.558877209</v>
+        <v>7631.010788281448</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44134.68614516291</v>
+        <v>172129.9034743916</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7699.624353930667</v>
+        <v>44134.68614516291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>172129.9034743916</v>
+        <v>7699.624353930667</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137807.9032652169</v>
+        <v>544783.3566043002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24635.33863778523</v>
+        <v>137807.9032652169</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>544783.3566043002</v>
+        <v>24635.33863778523</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140163.7220781688</v>
+        <v>545930.1049050423</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24836.2466827473</v>
+        <v>140163.7220781688</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>545930.1049050423</v>
+        <v>24836.2466827473</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140778.7097774906</v>
+        <v>547323.4810976656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24896.48405762948</v>
+        <v>140778.7097774906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>547323.4810976656</v>
+        <v>24896.48405762948</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9671.167627441413</v>
+        <v>344.2031533853096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>676.3705756279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344.2031533853096</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141365.6798151446</v>
+        <v>548979.149184986</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24724.99234532384</v>
+        <v>141365.6798151446</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>548979.149184986</v>
+        <v>24724.99234532384</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142327.2800871753</v>
+        <v>550902.780121367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24625.46116545211</v>
+        <v>142327.2800871753</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>550902.780121367</v>
+        <v>24625.46116545211</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>129626.7830596613</v>
+        <v>528613.1624990054</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22234.34923847017</v>
+        <v>129626.7830596613</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>528613.1624990054</v>
+        <v>22234.34923847017</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130723.4374727849</v>
+        <v>531039.4888279522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22454.81513320198</v>
+        <v>130723.4374727849</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>531039.4888279522</v>
+        <v>22454.81513320198</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131561.4855174678</v>
+        <v>533674.9846049584</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22708.80112284236</v>
+        <v>131561.4855174678</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>533674.9846049584</v>
+        <v>22708.80112284236</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132495.5947055947</v>
+        <v>536480.1221441217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23042.14708784607</v>
+        <v>132495.5947055947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>536480.1221441217</v>
+        <v>23042.14708784607</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132631.095954861</v>
+        <v>539418.0249788174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23279.81490724155</v>
+        <v>132631.095954861</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>539418.0249788174</v>
+        <v>23279.81490724155</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28857.45906381309</v>
+        <v>108250.5498425951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4338.558075202745</v>
+        <v>28857.45906381309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>108250.5498425951</v>
+        <v>4338.558075202745</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28871.76834248309</v>
+        <v>111442.6290638568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5053.365950429055</v>
+        <v>28871.76834248309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>111442.6290638568</v>
+        <v>5053.365950429055</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28632.69012625515</v>
+        <v>114868.6889942084</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6467.059176033887</v>
+        <v>28632.69012625515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>114868.6889942084</v>
+        <v>6467.059176033887</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7676.332671315526</v>
+        <v>971.096746488053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>863.6097471737995</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971.096746488053</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28535.75068869232</v>
+        <v>118723.1178253815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7971.869364188926</v>
+        <v>28535.75068869232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>118723.1178253815</v>
+        <v>7971.869364188926</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28398.00506606256</v>
+        <v>123323.1832260797</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9483.114863605646</v>
+        <v>28398.00506606256</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>123323.1832260797</v>
+        <v>9483.114863605646</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13802.59201180097</v>
+        <v>46980.97871882655</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7127.902878181601</v>
+        <v>13802.59201180097</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46980.97871882655</v>
+        <v>7127.902878181601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13019.26795457373</v>
+        <v>54536.26650927961</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6271.911027000519</v>
+        <v>13019.26795457373</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54536.26650927961</v>
+        <v>6271.911027000519</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11901.39166198391</v>
+        <v>64493.9857351277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6147.744838961691</v>
+        <v>11901.39166198391</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>64493.9857351277</v>
+        <v>6147.744838961691</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11734.75628859899</v>
+        <v>77502.36979058571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5663.087655240088</v>
+        <v>11734.75628859899</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>77502.36979058571</v>
+        <v>5663.087655240088</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13411.72326413076</v>
+        <v>94128.65424345247</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4930.963215021358</v>
+        <v>13411.72326413076</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>94128.65424345247</v>
+        <v>4930.963215021358</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17834.86132360157</v>
+        <v>114766.1854977701</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4218.720455380389</v>
+        <v>17834.86132360157</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>114766.1854977701</v>
+        <v>4218.720455380389</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26867.01707701222</v>
+        <v>139550.1018296313</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4673.902392518474</v>
+        <v>26867.01707701222</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139550.1018296313</v>
+        <v>4673.902392518474</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>40573.87891603122</v>
+        <v>168291.4507868402</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7170.400835869019</v>
+        <v>40573.87891603122</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>168291.4507868402</v>
+        <v>7170.400835869019</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10163.62184563424</v>
+        <v>2894.021544097108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103.9301128404004</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894.021544097108</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>56875.96832404984</v>
+        <v>200433.9568257844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10172.66985368647</v>
+        <v>56875.96832404984</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>200433.9568257844</v>
+        <v>10172.66985368647</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>79713.19230754604</v>
+        <v>235034.7855069563</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14171.73919489956</v>
+        <v>79713.19230754604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>235034.7855069563</v>
+        <v>14171.73919489956</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>113391.002435145</v>
+        <v>270772.9004142154</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20121.57985971536</v>
+        <v>113391.002435145</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>270772.9004142154</v>
+        <v>20121.57985971536</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137143.2488815596</v>
+        <v>305993.8704679646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24278.87709211878</v>
+        <v>137143.2488815596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>305993.8704679646</v>
+        <v>24278.87709211878</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140919.1303381259</v>
+        <v>338802.6885313122</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24797.87994897657</v>
+        <v>140919.1303381259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>338802.6885313122</v>
+        <v>24797.87994897657</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140364.853352136</v>
+        <v>367211.2219714541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24513.6453560954</v>
+        <v>140364.853352136</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>367211.2219714541</v>
+        <v>24513.6453560954</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138072.4627459277</v>
+        <v>444729.8063456556</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23922.35852248414</v>
+        <v>138072.4627459277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>444729.8063456556</v>
+        <v>23922.35852248414</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>133877.0125689539</v>
+        <v>474675.1179391397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23078.92342388182</v>
+        <v>133877.0125689539</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>474675.1179391397</v>
+        <v>23078.92342388182</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147819.1016129162</v>
+        <v>480056.1880148295</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25702.1295786259</v>
+        <v>147819.1016129162</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>480056.1880148295</v>
+        <v>25702.1295786259</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144412.7540196031</v>
+        <v>476179.9400960356</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25191.24782679521</v>
+        <v>144412.7540196031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>476179.9400960356</v>
+        <v>25191.24782679521</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9696.589980632714</v>
+        <v>3986.207392154894</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.273736754432321E-13</v>
+        <v>9696.589980632714</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986.207392154894</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134832.7165260871</v>
+        <v>463408.6979792826</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23622.75997544691</v>
+        <v>134832.7165260871</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>463408.6979792826</v>
+        <v>23622.75997544691</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>112004.4042513976</v>
+        <v>442790.5827445015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19719.92929678276</v>
+        <v>112004.4042513976</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>442790.5827445015</v>
+        <v>19719.92929678276</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>73795.48136751889</v>
+        <v>407882.2723031742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13172.928060968</v>
+        <v>73795.48136751889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407882.2723031742</v>
+        <v>13172.928060968</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48312.62019123905</v>
+        <v>376770.0475733979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9307.042865940137</v>
+        <v>48312.62019123905</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>376770.0475733979</v>
+        <v>9307.042865940137</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44098.92081345385</v>
+        <v>343590.6094669309</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9710.095711192291</v>
+        <v>44098.92081345385</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>343590.6094669309</v>
+        <v>9710.095711192291</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42488.12843766063</v>
+        <v>310562.6568837399</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10669.3237703669</v>
+        <v>42488.12843766063</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>310562.6568837399</v>
+        <v>10669.3237703669</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>39054.56857533008</v>
+        <v>279792.9122626502</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10988.45316497423</v>
+        <v>39054.56857533008</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>279792.9122626502</v>
+        <v>10988.45316497423</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31665.31173904869</v>
+        <v>245199.5946550881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9981.124033130938</v>
+        <v>31665.31173904869</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>245199.5946550881</v>
+        <v>9981.124033130938</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27741.92608064157</v>
+        <v>224138.1456989655</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9057.812344232458</v>
+        <v>27741.92608064157</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>224138.1456989655</v>
+        <v>9057.812344232458</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27136.38837669045</v>
+        <v>209642.8989516739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8540.318178685673</v>
+        <v>27136.38837669045</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>209642.8989516739</v>
+        <v>8540.318178685673</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614.23185738787</v>
+        <v>3868.253987352055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>445.4147693159996</v>
+        <v>11614.23185738787</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868.253987352055</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28172.92938194727</v>
+        <v>202122.675160653</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8143.007129061152</v>
+        <v>28172.92938194727</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>202122.675160653</v>
+        <v>8143.007129061152</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31369.08409569901</v>
+        <v>201440.8977118609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7800.93066152354</v>
+        <v>31369.08409569901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>201440.8977118609</v>
+        <v>7800.93066152354</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>36154.03709277534</v>
+        <v>201053.5226023905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7604.621723266668</v>
+        <v>36154.03709277534</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>201053.5226023905</v>
+        <v>7604.621723266668</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46405.77604592149</v>
+        <v>212056.1008548765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8646.951464725891</v>
+        <v>46405.77604592149</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>212056.1008548765</v>
+        <v>8646.951464725891</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60910.85714576324</v>
+        <v>227516.6548147621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10929.19267985766</v>
+        <v>60910.85714576324</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>227516.6548147621</v>
+        <v>10929.19267985766</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>79515.27367432276</v>
+        <v>246467.1014811341</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14225.35110606445</v>
+        <v>79515.27367432276</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>246467.1014811341</v>
+        <v>14225.35110606445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>101850.4044743106</v>
+        <v>267972.5286871754</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18178.79885331733</v>
+        <v>101850.4044743106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>267972.5286871754</v>
+        <v>18178.79885331733</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>124235.5888574468</v>
+        <v>286960.1484984839</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22087.65819319332</v>
+        <v>124235.5888574468</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>286960.1484984839</v>
+        <v>22087.65819319332</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142181.0744933628</v>
+        <v>310856.7331001498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25184.86602215789</v>
+        <v>142181.0744933628</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>310856.7331001498</v>
+        <v>25184.86602215789</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150068.8194190548</v>
+        <v>334593.174584426</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26456.38481905893</v>
+        <v>150068.8194190548</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>334593.174584426</v>
+        <v>26456.38481905893</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346.23959020476</v>
+        <v>7210.903606480411</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449.5389801430001</v>
+        <v>13346.23959020476</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7210.903606480411</v>
+        <v>449.5389801430001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>151082.5998610472</v>
+        <v>357269.4543738905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26489.38122109073</v>
+        <v>151082.5998610472</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>357269.4543738905</v>
+        <v>26489.38122109073</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150341.7700468951</v>
+        <v>378009.8295170134</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26241.93551949511</v>
+        <v>150341.7700468951</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>378009.8295170134</v>
+        <v>26241.93551949511</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149241.1399997193</v>
+        <v>391926.2133598709</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26003.74958674092</v>
+        <v>149241.1399997193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>391926.2133598709</v>
+        <v>26003.74958674092</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149912.2737858298</v>
+        <v>406407.856819489</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26190.38386571186</v>
+        <v>149912.2737858298</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>406407.856819489</v>
+        <v>26190.38386571186</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>145896.8676733745</v>
+        <v>416782.307906053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25609.37916994363</v>
+        <v>145896.8676733745</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>416782.307906053</v>
+        <v>25609.37916994363</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132399.7456258365</v>
+        <v>422621.1218748111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23387.09912049107</v>
+        <v>132399.7456258365</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>422621.1218748111</v>
+        <v>23387.09912049107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>110808.666173354</v>
+        <v>423727.6855345946</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19819.03012121067</v>
+        <v>110808.666173354</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>423727.6855345946</v>
+        <v>19819.03012121067</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>84311.56524662836</v>
+        <v>415913.4078259328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15546.06206161657</v>
+        <v>84311.56524662836</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>415913.4078259328</v>
+        <v>15546.06206161657</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>64035.20587011613</v>
+        <v>408084.7556957621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12652.13854796975</v>
+        <v>64035.20587011613</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>408084.7556957621</v>
+        <v>12652.13854796975</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>54045.11391635309</v>
+        <v>396636.9422268663</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11821.59041848371</v>
+        <v>54045.11391635309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>396636.9422268663</v>
+        <v>11821.59041848371</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317.58763500561</v>
+        <v>22035.49449861568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602.1347807420011</v>
+        <v>11317.58763500561</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22035.49449861568</v>
+        <v>602.1347807420011</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49950.12312612776</v>
+        <v>382475.0241808323</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12050.73416767706</v>
+        <v>49950.12312612776</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>382475.0241808323</v>
+        <v>12050.73416767706</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46195.89832438342</v>
+        <v>366671.2955446905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12069.06862903899</v>
+        <v>46195.89832438342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>366671.2955446905</v>
+        <v>12069.06862903899</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>40678.21968770353</v>
+        <v>345557.2209573006</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.39169311128</v>
+        <v>40678.21968770353</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>345557.2209573006</v>
+        <v>11327.39169311128</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37598.31807951676</v>
+        <v>329868.0930655925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10610.85658072308</v>
+        <v>37598.31807951676</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>329868.0930655925</v>
+        <v>10610.85658072308</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37102.73434850341</v>
+        <v>315789.1930260565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10068.75113772223</v>
+        <v>37102.73434850341</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>315789.1930260565</v>
+        <v>10068.75113772223</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>39008.36830023071</v>
+        <v>304138.2538976893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9760.532456565474</v>
+        <v>39008.36830023071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>304138.2538976893</v>
+        <v>9760.532456565474</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43284.22448518127</v>
+        <v>295518.5454317741</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9727.574615039804</v>
+        <v>43284.22448518127</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>295518.5454317741</v>
+        <v>9727.574615039804</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48830.83874535188</v>
+        <v>283730.137487134</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9891.286139078322</v>
+        <v>48830.83874535188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>283730.137487134</v>
+        <v>9891.286139078322</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59879.74163725739</v>
+        <v>282075.9901500754</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11228.72629238444</v>
+        <v>59879.74163725739</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>282075.9901500754</v>
+        <v>11228.72629238444</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>74975.14975215448</v>
+        <v>283922.7709373888</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13574.68871440721</v>
+        <v>74975.14975215448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>283922.7709373888</v>
+        <v>13574.68871440721</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -149,10 +149,10 @@
     <t>Photovoltaic plants</t>
   </si>
   <si>
-    <t>Onshore wind plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Onshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980.0616577483</v>
+        <v>1377.48641621805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377.48641621805</v>
+        <v>17980.0616577483</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93246.40973934531</v>
+        <v>16703.51099402242</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16703.51099402242</v>
+        <v>93246.40973934531</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>113083.6936244303</v>
+        <v>20179.25231307908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20179.25231307908</v>
+        <v>113083.6936244303</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245.5936774787</v>
+        <v>1729.281599762185</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729.281599762185</v>
+        <v>13245.5936774787</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164.42388046504</v>
+        <v>535.9404624908193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535.9404624908193</v>
+        <v>14164.42388046504</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179.25120447073</v>
+        <v>1316.954491176508</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316.954491176508</v>
+        <v>15179.25120447073</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469.15937598285</v>
+        <v>4284.92829909301</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284.92829909301</v>
+        <v>12469.15937598285</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15231.7324049187</v>
+        <v>2265.417723368202</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265.417723368202</v>
+        <v>15231.7324049187</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13314.9966614696</v>
+        <v>11327.28500698648</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.28500698648</v>
+        <v>13314.9966614696</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13701.63602067638</v>
+        <v>5279.272951374514</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279.272951374514</v>
+        <v>13701.63602067638</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13837.10828642841</v>
+        <v>6118.463196489462</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6118.463196489462</v>
+        <v>13837.10828642841</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9108.202091906802</v>
+        <v>7032.549131518725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7032.549131518725</v>
+        <v>9108.202091906802</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846.528544909441</v>
+        <v>37.117897443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.117897443</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11058.75951699464</v>
+        <v>4981.52217648067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4981.52217648067</v>
+        <v>11058.75951699464</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8811.535525649</v>
+        <v>6789.877889009702</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6789.877889009702</v>
+        <v>8811.535525649</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12066.80230185518</v>
+        <v>1438.967972951417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1438.967972951417</v>
+        <v>12066.80230185518</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15974.2227389086</v>
+        <v>2333.064198669672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2333.064198669672</v>
+        <v>15974.2227389086</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41429.93709705689</v>
+        <v>7604.845983196421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7604.845983196421</v>
+        <v>41429.93709705689</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42250.03689584011</v>
+        <v>7631.010788281448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7631.010788281448</v>
+        <v>42250.03689584011</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44134.68614516291</v>
+        <v>7699.624353930667</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7699.624353930667</v>
+        <v>44134.68614516291</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>137807.9032652169</v>
+        <v>24635.33863778523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24635.33863778523</v>
+        <v>137807.9032652169</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140163.7220781688</v>
+        <v>24836.2466827473</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24836.2466827473</v>
+        <v>140163.7220781688</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140778.7097774906</v>
+        <v>24896.48405762948</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24896.48405762948</v>
+        <v>140778.7097774906</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671.167627441413</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676.3705756279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141365.6798151446</v>
+        <v>24724.99234532384</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24724.99234532384</v>
+        <v>141365.6798151446</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142327.2800871753</v>
+        <v>24625.46116545211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24625.46116545211</v>
+        <v>142327.2800871753</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>129626.7830596613</v>
+        <v>22234.34923847017</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22234.34923847017</v>
+        <v>129626.7830596613</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>130723.4374727849</v>
+        <v>22454.81513320198</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22454.81513320198</v>
+        <v>130723.4374727849</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131561.4855174678</v>
+        <v>22708.80112284236</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22708.80112284236</v>
+        <v>131561.4855174678</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132495.5947055947</v>
+        <v>23042.14708784607</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23042.14708784607</v>
+        <v>132495.5947055947</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132631.095954861</v>
+        <v>23279.81490724155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23279.81490724155</v>
+        <v>132631.095954861</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28857.45906381309</v>
+        <v>4338.558075202745</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4338.558075202745</v>
+        <v>28857.45906381309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28871.76834248309</v>
+        <v>5053.365950429055</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5053.365950429055</v>
+        <v>28871.76834248309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28632.69012625515</v>
+        <v>6467.059176033887</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6467.059176033887</v>
+        <v>28632.69012625515</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676.332671315526</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863.6097471737995</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28535.75068869232</v>
+        <v>7971.869364188926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7971.869364188926</v>
+        <v>28535.75068869232</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28398.00506606256</v>
+        <v>9483.114863605646</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9483.114863605646</v>
+        <v>28398.00506606256</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13802.59201180097</v>
+        <v>7127.902878181601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7127.902878181601</v>
+        <v>13802.59201180097</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13019.26795457373</v>
+        <v>6271.911027000519</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6271.911027000519</v>
+        <v>13019.26795457373</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11901.39166198391</v>
+        <v>6147.744838961691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6147.744838961691</v>
+        <v>11901.39166198391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11734.75628859899</v>
+        <v>5663.087655240088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5663.087655240088</v>
+        <v>11734.75628859899</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13411.72326413076</v>
+        <v>4930.963215021358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4930.963215021358</v>
+        <v>13411.72326413076</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17834.86132360157</v>
+        <v>4218.720455380389</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4218.720455380389</v>
+        <v>17834.86132360157</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26867.01707701222</v>
+        <v>4673.902392518474</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4673.902392518474</v>
+        <v>26867.01707701222</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40573.87891603122</v>
+        <v>7170.400835869019</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7170.400835869019</v>
+        <v>40573.87891603122</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163.62184563424</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103.9301128404004</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56875.96832404984</v>
+        <v>10172.66985368647</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10172.66985368647</v>
+        <v>56875.96832404984</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79713.19230754604</v>
+        <v>14171.73919489956</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14171.73919489956</v>
+        <v>79713.19230754604</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>113391.002435145</v>
+        <v>20121.57985971536</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20121.57985971536</v>
+        <v>113391.002435145</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>137143.2488815596</v>
+        <v>24278.87709211878</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24278.87709211878</v>
+        <v>137143.2488815596</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140919.1303381259</v>
+        <v>24797.87994897657</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24797.87994897657</v>
+        <v>140919.1303381259</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140364.853352136</v>
+        <v>24513.6453560954</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24513.6453560954</v>
+        <v>140364.853352136</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>138072.4627459277</v>
+        <v>23922.35852248414</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23922.35852248414</v>
+        <v>138072.4627459277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133877.0125689539</v>
+        <v>23078.92342388182</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23078.92342388182</v>
+        <v>133877.0125689539</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>147819.1016129162</v>
+        <v>25702.1295786259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25702.1295786259</v>
+        <v>147819.1016129162</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144412.7540196031</v>
+        <v>25191.24782679521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25191.24782679521</v>
+        <v>144412.7540196031</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696.589980632714</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.273736754432321E-13</v>
+        <v>9696.589980632714</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>134832.7165260871</v>
+        <v>23622.75997544691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23622.75997544691</v>
+        <v>134832.7165260871</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>112004.4042513976</v>
+        <v>19719.92929678276</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19719.92929678276</v>
+        <v>112004.4042513976</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>73795.48136751889</v>
+        <v>13172.928060968</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13172.928060968</v>
+        <v>73795.48136751889</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48312.62019123905</v>
+        <v>9307.042865940137</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9307.042865940137</v>
+        <v>48312.62019123905</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44098.92081345385</v>
+        <v>9710.095711192291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9710.095711192291</v>
+        <v>44098.92081345385</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42488.12843766063</v>
+        <v>10669.3237703669</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10669.3237703669</v>
+        <v>42488.12843766063</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39054.56857533008</v>
+        <v>10988.45316497423</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10988.45316497423</v>
+        <v>39054.56857533008</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31665.31173904869</v>
+        <v>9981.124033130938</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9981.124033130938</v>
+        <v>31665.31173904869</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27741.92608064157</v>
+        <v>9057.812344232458</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9057.812344232458</v>
+        <v>27741.92608064157</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27136.38837669045</v>
+        <v>8540.318178685673</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8540.318178685673</v>
+        <v>27136.38837669045</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614.23185738787</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445.4147693159996</v>
+        <v>11614.23185738787</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28172.92938194727</v>
+        <v>8143.007129061152</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8143.007129061152</v>
+        <v>28172.92938194727</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31369.08409569901</v>
+        <v>7800.93066152354</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7800.93066152354</v>
+        <v>31369.08409569901</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36154.03709277534</v>
+        <v>7604.621723266668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7604.621723266668</v>
+        <v>36154.03709277534</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46405.77604592149</v>
+        <v>8646.951464725891</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8646.951464725891</v>
+        <v>46405.77604592149</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60910.85714576324</v>
+        <v>10929.19267985766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10929.19267985766</v>
+        <v>60910.85714576324</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79515.27367432276</v>
+        <v>14225.35110606445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14225.35110606445</v>
+        <v>79515.27367432276</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>101850.4044743106</v>
+        <v>18178.79885331733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18178.79885331733</v>
+        <v>101850.4044743106</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124235.5888574468</v>
+        <v>22087.65819319332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22087.65819319332</v>
+        <v>124235.5888574468</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142181.0744933628</v>
+        <v>25184.86602215789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25184.86602215789</v>
+        <v>142181.0744933628</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>150068.8194190548</v>
+        <v>26456.38481905893</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26456.38481905893</v>
+        <v>150068.8194190548</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346.23959020476</v>
+        <v>449.5389801430001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449.5389801430001</v>
+        <v>13346.23959020476</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151082.5998610472</v>
+        <v>26489.38122109073</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26489.38122109073</v>
+        <v>151082.5998610472</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>150341.7700468951</v>
+        <v>26241.93551949511</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26241.93551949511</v>
+        <v>150341.7700468951</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149241.1399997193</v>
+        <v>26003.74958674092</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26003.74958674092</v>
+        <v>149241.1399997193</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149912.2737858298</v>
+        <v>26190.38386571186</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26190.38386571186</v>
+        <v>149912.2737858298</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>145896.8676733745</v>
+        <v>25609.37916994363</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25609.37916994363</v>
+        <v>145896.8676733745</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132399.7456258365</v>
+        <v>23387.09912049107</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23387.09912049107</v>
+        <v>132399.7456258365</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>110808.666173354</v>
+        <v>19819.03012121067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19819.03012121067</v>
+        <v>110808.666173354</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>84311.56524662836</v>
+        <v>15546.06206161657</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15546.06206161657</v>
+        <v>84311.56524662836</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>64035.20587011613</v>
+        <v>12652.13854796975</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12652.13854796975</v>
+        <v>64035.20587011613</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54045.11391635309</v>
+        <v>11821.59041848371</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11821.59041848371</v>
+        <v>54045.11391635309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317.58763500561</v>
+        <v>602.1347807420011</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602.1347807420011</v>
+        <v>11317.58763500561</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49950.12312612776</v>
+        <v>12050.73416767706</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12050.73416767706</v>
+        <v>49950.12312612776</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46195.89832438342</v>
+        <v>12069.06862903899</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12069.06862903899</v>
+        <v>46195.89832438342</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40678.21968770353</v>
+        <v>11327.39169311128</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.39169311128</v>
+        <v>40678.21968770353</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37598.31807951676</v>
+        <v>10610.85658072308</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10610.85658072308</v>
+        <v>37598.31807951676</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37102.73434850341</v>
+        <v>10068.75113772223</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10068.75113772223</v>
+        <v>37102.73434850341</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39008.36830023071</v>
+        <v>9760.532456565474</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9760.532456565474</v>
+        <v>39008.36830023071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43284.22448518127</v>
+        <v>9727.574615039804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9727.574615039804</v>
+        <v>43284.22448518127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48830.83874535188</v>
+        <v>9891.286139078322</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9891.286139078322</v>
+        <v>48830.83874535188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>59879.74163725739</v>
+        <v>11228.72629238444</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11228.72629238444</v>
+        <v>59879.74163725739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74975.14975215448</v>
+        <v>13574.68871440721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13574.68871440721</v>
+        <v>74975.14975215448</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,10 +146,10 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Onshore wind plants</t>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25937.39935611217</v>
+        <v>1167.498580441705</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1377.48641621805</v>
+        <v>21983.55183090901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17980.0616577483</v>
+        <v>15239.13137329725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>289026.847540997</v>
+        <v>18265.96045579627</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16703.51099402242</v>
+        <v>313506.4878267217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>93246.40973934531</v>
+        <v>102163.8903980711</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>296988.627237035</v>
+        <v>22067.16407488147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20179.25231307908</v>
+        <v>322308.7693759575</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>113083.6936244303</v>
+        <v>123799.510422566</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>54023.47858586391</v>
+        <v>1542.060593650026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1729.281599762185</v>
+        <v>48174.82312736893</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13245.5936774787</v>
+        <v>11811.55692192072</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>81395.65130316232</v>
+        <v>455.1539189872819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535.9404624908193</v>
+        <v>69126.71206170156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14164.42388046504</v>
+        <v>12029.30827376466</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47735.7756411836</v>
+        <v>1211.758890673825</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1316.954491176508</v>
+        <v>43923.27524566693</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15179.25120447073</v>
+        <v>13966.76402380725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23788.17139442798</v>
+        <v>3814.11477327526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4284.92829909301</v>
+        <v>21175.47457971261</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12469.15937598285</v>
+        <v>11099.09009330743</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14490.7428737302</v>
+        <v>2015.894089040166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2265.417723368202</v>
+        <v>12896.28474952947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15231.7324049187</v>
+        <v>13554.03901565427</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13615.22147508524</v>
+        <v>12069.22815370651</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.28500698648</v>
+        <v>14504.0160766003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13314.9966614696</v>
+        <v>14187.137479989</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9593.826922069071</v>
+        <v>5638.280956287254</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5279.272951374514</v>
+        <v>10239.62992780647</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13701.63602067638</v>
+        <v>14633.40046334954</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7780.730833594003</v>
+        <v>6402.657099561755</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6118.463196489462</v>
+        <v>8131.205168426211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13837.10828642841</v>
+        <v>14479.8643604056</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10125.60574006873</v>
+        <v>7039.536943056308</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7032.549131518725</v>
+        <v>10122.6347604497</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9108.202091906802</v>
+        <v>9117.474893138016</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407.7534801982089</v>
+        <v>48.99483028137564</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.117897443</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7846.528544909441</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18638.56059409605</v>
+        <v>5260.414558462391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4981.52217648067</v>
+        <v>19643.96004088166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11058.75951699464</v>
+        <v>11678.6056191799</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16313.83824327039</v>
+        <v>7027.553816524378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6789.877889009702</v>
+        <v>16830.52938356766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8811.535525649</v>
+        <v>9122.945660720783</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20636.60881117872</v>
+        <v>1438.566989604566</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1438.967972951417</v>
+        <v>20563.43414931885</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12066.80230185518</v>
+        <v>12073.5470869554</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26129.29309581878</v>
+        <v>2619.595597007108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2333.064198669672</v>
+        <v>29119.97266362177</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15974.2227389086</v>
+        <v>17955.76635331372</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>170844.9866638308</v>
+        <v>8315.695058939215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7604.845983196421</v>
+        <v>186507.7497737113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41429.93709705689</v>
+        <v>45373.86213592516</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>171403.558877209</v>
+        <v>8346.963717347273</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7631.010788281448</v>
+        <v>187000.2759123211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42250.03689584011</v>
+        <v>46408.31436843303</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>172129.9034743916</v>
+        <v>8428.3728239396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7699.624353930667</v>
+        <v>187639.9178729067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44134.68614516291</v>
+        <v>48757.3974285585</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>544783.3566043002</v>
+        <v>26955.02335702057</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24635.33863778523</v>
+        <v>594860.7176472819</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>137807.9032652169</v>
+        <v>151504.1628906048</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>545930.1049050423</v>
+        <v>27179.92437633959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24836.2466827473</v>
+        <v>595869.5521023697</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140163.7220781688</v>
+        <v>153887.5848002668</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>547323.4810976656</v>
+        <v>27222.49810247112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24896.48405762948</v>
+        <v>597096.0478489175</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140778.7097774906</v>
+        <v>153634.5944820631</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>344.2031533853096</v>
+        <v>845.5868443316413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>676.3705756279999</v>
+        <v>430.3168541359767</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9671.167627441413</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>548979.149184986</v>
+        <v>27005.6917822306</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24724.99234532384</v>
+        <v>598555.8736687242</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141365.6798151446</v>
+        <v>153356.9559613152</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>550902.780121367</v>
+        <v>26880.52610287402</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24625.46116545211</v>
+        <v>600257.5784125663</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142327.2800871753</v>
+        <v>153875.3833248852</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>528613.1624990054</v>
+        <v>24226.86015057092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22234.34923847017</v>
+        <v>575443.6172236633</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>129626.7830596613</v>
+        <v>139503.122730908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>531039.4888279522</v>
+        <v>24408.91533269646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22454.81513320198</v>
+        <v>577621.5240414115</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>130723.4374727849</v>
+        <v>140055.5024124878</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>533674.9846049584</v>
+        <v>24618.1520348303</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22708.80112284236</v>
+        <v>580019.2285235338</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>131561.4855174678</v>
+        <v>140469.0512546406</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>536480.1221441217</v>
+        <v>24916.56921148527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23042.14708784607</v>
+        <v>582621.4552817373</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132495.5947055947</v>
+        <v>141343.6833243843</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>539418.0249788174</v>
+        <v>25151.9170122678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23279.81490724155</v>
+        <v>585421.5824127933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132631.095954861</v>
+        <v>141728.611019623</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>108250.5498425951</v>
+        <v>4443.784225713403</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4338.558075202745</v>
+        <v>113708.6798975477</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28857.45906381309</v>
+        <v>28592.25197686907</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>111442.6290638568</v>
+        <v>5147.707063095528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5053.365950429055</v>
+        <v>117000.5917024184</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28871.76834248309</v>
+        <v>28827.95998620638</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>114868.6889942084</v>
+        <v>6562.72472975601</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6467.059176033887</v>
+        <v>120700.7932837484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28632.69012625515</v>
+        <v>28912.88124839636</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>971.096746488053</v>
+        <v>902.5247365629416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>863.6097471737995</v>
+        <v>1014.85521073983</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7676.332671315526</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118723.1178253815</v>
+        <v>8232.954242143722</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7971.869364188926</v>
+        <v>125036.5509092556</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28535.75068869232</v>
+        <v>29259.55714073218</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>123323.1832260797</v>
+        <v>10031.07254939666</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9483.114863605646</v>
+        <v>130351.2476366153</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28398.00506606256</v>
+        <v>29898.24856166425</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46980.97871882655</v>
+        <v>7514.506392936746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7127.902878181601</v>
+        <v>47312.41396207456</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13802.59201180097</v>
+        <v>14521.52737701312</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>54536.26650927961</v>
+        <v>6535.477013180032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6271.911027000519</v>
+        <v>56094.64394397475</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13019.26795457373</v>
+        <v>13653.2093397181</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>64493.9857351277</v>
+        <v>6336.741945080168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6147.744838961691</v>
+        <v>67544.93097569235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11901.39166198391</v>
+        <v>12373.96497824532</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>77502.36979058571</v>
+        <v>5860.167205103848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5663.087655240088</v>
+        <v>82313.67449808586</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11734.75628859899</v>
+        <v>12256.38097967813</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>94128.65424345247</v>
+        <v>5162.594349634077</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4930.963215021358</v>
+        <v>100970.4552030265</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13411.72326413076</v>
+        <v>14163.38473742991</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>114766.1854977701</v>
+        <v>4478.483875752718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4218.720455380389</v>
+        <v>123910.9476375049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17834.86132360157</v>
+        <v>19105.27230914403</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139550.1018296313</v>
+        <v>5088.985236414941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4673.902392518474</v>
+        <v>151268.436571111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26867.01707701222</v>
+        <v>29323.50471159187</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>168291.4507868402</v>
+        <v>7854.860276266874</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7170.400835869019</v>
+        <v>182839.8897974417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40573.87891603122</v>
+        <v>44600.41045035725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2894.021544097108</v>
+        <v>98.7726955543053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103.9301128404004</v>
+        <v>2750.409196964295</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10163.62184563424</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>200433.9568257844</v>
+        <v>11131.01712057332</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10172.66985368647</v>
+        <v>218032.541270433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>56875.96832404984</v>
+        <v>62500.82541872701</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>235034.7855069563</v>
+        <v>15505.40106242837</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14171.73919489956</v>
+        <v>255835.2948908685</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>79713.19230754604</v>
+        <v>87597.16384810512</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>270772.9004142154</v>
+        <v>22013.16077276337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20121.57985971536</v>
+        <v>294821.7776585668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>113391.002435145</v>
+        <v>124432.4175887201</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>305993.8704679646</v>
+        <v>26553.57581116282</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24278.87709211878</v>
+        <v>333196.3709263215</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>137143.2488815596</v>
+        <v>150100.731998577</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>338802.6885313122</v>
+        <v>27103.94031869119</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24797.87994897657</v>
+        <v>368895.8112203926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140919.1303381259</v>
+        <v>153587.2091171865</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>367211.2219714541</v>
+        <v>26766.7526636874</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24513.6453560954</v>
+        <v>399752.3705495093</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140364.853352136</v>
+        <v>152233.5286070341</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>444729.8063456556</v>
+        <v>26088.7197761861</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23922.35852248414</v>
+        <v>484273.8436676497</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>138072.4627459277</v>
+        <v>149095.9546778605</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>474675.1179391397</v>
+        <v>25125.22805717541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23078.92342388182</v>
+        <v>516764.3754640985</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>133877.0125689539</v>
+        <v>143984.1523725933</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>480056.1880148295</v>
+        <v>27939.43496720213</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25702.1295786259</v>
+        <v>522388.3460739888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>147819.1016129162</v>
+        <v>158752.3410369523</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>476179.9400960356</v>
+        <v>27322.90989989357</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25191.24782679521</v>
+        <v>517891.2037531752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144412.7540196031</v>
+        <v>154685.870182531</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3986.207392154894</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.273736754432321E-13</v>
+        <v>3787.788735643691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9696.589980632714</v>
+        <v>9213.925933867096</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>463408.6979792826</v>
+        <v>25556.87805875059</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23622.75997544691</v>
+        <v>503680.5850482052</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>134832.7165260871</v>
+        <v>144115.2716055762</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>442790.5827445015</v>
+        <v>21251.61832882592</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19719.92929678276</v>
+        <v>480914.0018471126</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>112004.4042513976</v>
+        <v>119300.7130335073</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407882.2723031742</v>
+        <v>14058.42657758226</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13172.928060968</v>
+        <v>442558.0124024935</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>73795.48136751889</v>
+        <v>77801.54996997537</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>376770.0475733979</v>
+        <v>9783.221012065245</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9307.042865940137</v>
+        <v>408395.8273407528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48312.62019123905</v>
+        <v>50260.43815802736</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>343590.6094669309</v>
+        <v>10180.86345003475</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9710.095711192291</v>
+        <v>372024.978557812</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44098.92081345385</v>
+        <v>46037.54893568088</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>310562.6568837399</v>
+        <v>11240.10463316541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10669.3237703669</v>
+        <v>335876.4672742672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42488.12843766063</v>
+        <v>44757.81099803606</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>279792.9122626502</v>
+        <v>11649.055867085</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10988.45316497423</v>
+        <v>302255.8112427304</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39054.56857533008</v>
+        <v>41528.06208824762</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>245199.5946550881</v>
+        <v>10592.266098906</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9981.124033130938</v>
+        <v>264512.6325635249</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31665.31173904869</v>
+        <v>33854.95434032776</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>224138.1456989655</v>
+        <v>9583.504973354866</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9057.812344232458</v>
+        <v>241616.5118574901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27741.92608064157</v>
+        <v>29728.92648697109</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>209642.8989516739</v>
+        <v>9014.18216999172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8540.318178685673</v>
+        <v>225943.4997961689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27136.38837669045</v>
+        <v>29094.96053967834</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3868.253987352055</v>
+        <v>419.367027715833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>445.4147693159996</v>
+        <v>3642.045125365785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11614.23185738787</v>
+        <v>10935.03455378197</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>202122.675160653</v>
+        <v>8618.234623989381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8143.007129061152</v>
+        <v>217929.0524044037</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28172.92938194727</v>
+        <v>30279.61664436455</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>201440.8977118609</v>
+        <v>8324.22046787414</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7800.93066152354</v>
+        <v>217410.1542909462</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31369.08409569901</v>
+        <v>33882.4048477977</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>201053.5226023905</v>
+        <v>8197.867900632555</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7604.621723266668</v>
+        <v>217217.4825962028</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36154.03709277534</v>
+        <v>39279.64870446105</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>212056.1008548765</v>
+        <v>9410.859558484051</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8646.951464725891</v>
+        <v>229467.0123679824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46405.77604592149</v>
+        <v>50710.90692579909</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>227516.6548147621</v>
+        <v>11948.21040643303</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10929.19267985766</v>
+        <v>246566.7706218194</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>60910.85714576324</v>
+        <v>66781.16194349225</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>246467.1014811341</v>
+        <v>15562.72576163732</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14225.35110606445</v>
+        <v>267447.4205563841</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>79515.27367432276</v>
+        <v>87238.75352298515</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>267972.5286871754</v>
+        <v>19884.59194819705</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18178.79885331733</v>
+        <v>291079.0086576883</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>101850.4044743106</v>
+        <v>111670.0305849989</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>286960.1484984839</v>
+        <v>24155.15148378542</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22087.65819319332</v>
+        <v>311911.1722525582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>124235.5888574468</v>
+        <v>136016.1477488596</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>310856.7331001498</v>
+        <v>27532.11508023681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25184.86602215789</v>
+        <v>338062.6347851735</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142181.0744933628</v>
+        <v>155292.1878163065</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>334593.174584426</v>
+        <v>28903.85434357094</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26456.38481905893</v>
+        <v>363993.6221645344</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>150068.8194190548</v>
+        <v>163365.6555537484</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7210.903606480411</v>
+        <v>387.7656110908424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449.5389801430001</v>
+        <v>6220.038314119924</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13346.23959020476</v>
+        <v>11512.26696473417</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>357269.4543738905</v>
+        <v>28912.43870357779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26489.38122109073</v>
+        <v>388724.8898362517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>151082.5998610472</v>
+        <v>163833.9333361713</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>378009.8295170134</v>
+        <v>28606.50708304957</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26241.93551949511</v>
+        <v>411305.5413750596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>150341.7700468951</v>
+        <v>162424.2724002134</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>391926.2133598709</v>
+        <v>28302.95096297032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26003.74958674092</v>
+        <v>426399.1395400912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149241.1399997193</v>
+        <v>160719.3972079996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>406407.856819489</v>
+        <v>28457.17751962348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26190.38386571186</v>
+        <v>442092.4196275733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149912.2737858298</v>
+        <v>161062.9843313289</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>416782.307906053</v>
+        <v>27770.1331822098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25609.37916994363</v>
+        <v>453285.2255208287</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>145896.8676733745</v>
+        <v>156428.6090701418</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>422621.1218748111</v>
+        <v>25292.58214824495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23387.09912049107</v>
+        <v>459517.0208238065</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132399.7456258365</v>
+        <v>141616.4334338633</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>423727.6855345946</v>
+        <v>21350.0340594388</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19819.03012121067</v>
+        <v>460580.1968303043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>110808.666173354</v>
+        <v>118140.1260915929</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>415913.4078259328</v>
+        <v>16641.23965828487</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15546.06206161657</v>
+        <v>451902.0672554895</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>84311.56524662836</v>
+        <v>89432.18448432209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>408084.7556957621</v>
+        <v>13444.63262640714</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12652.13854796975</v>
+        <v>443225.7876117565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>64035.20587011613</v>
+        <v>67604.08602419309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>396636.9422268663</v>
+        <v>12518.46819748654</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11821.59041848371</v>
+        <v>430615.1270386875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54045.11391635309</v>
+        <v>57078.0891596186</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22035.49449861568</v>
+        <v>483.9729262986148</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602.1347807420011</v>
+        <v>17711.34937109169</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11317.58763500561</v>
+        <v>9096.64444163983</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>382475.0241808323</v>
+        <v>12778.49211966625</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12050.73416767706</v>
+        <v>415063.2878342196</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49950.12312612776</v>
+        <v>53036.10466526868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366671.2955446905</v>
+        <v>12831.25665406231</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12069.06862903899</v>
+        <v>397745.0369530115</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46195.89832438342</v>
+        <v>49353.05819291063</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>345557.2209573006</v>
+        <v>12053.43091559201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.39169311128</v>
+        <v>374650.6517173015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40678.21968770353</v>
+        <v>43649.13580299634</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>329868.0930655925</v>
+        <v>11290.43222956412</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10610.85658072308</v>
+        <v>357516.4812790174</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37598.31807951676</v>
+        <v>40473.81119368365</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>315789.1930260565</v>
+        <v>10718.85892848321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10068.75113772223</v>
+        <v>342170.0461377483</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37102.73434850341</v>
+        <v>40027.18752605421</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>304138.2538976893</v>
+        <v>10424.0904499527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9760.532456565474</v>
+        <v>329502.0867879558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39008.36830023071</v>
+        <v>42192.41282274108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>295518.5454317741</v>
+        <v>10453.62441042636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9727.574615039804</v>
+        <v>320167.6569573749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43284.22448518127</v>
+        <v>46986.06245291699</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>283730.137487134</v>
+        <v>10704.95646030246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9891.286139078322</v>
+        <v>307382.9852808937</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48830.83874535188</v>
+        <v>53209.81911005965</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>282075.9901500754</v>
+        <v>12227.29811190255</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11228.72629238444</v>
+        <v>305685.939541718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>59879.74163725739</v>
+        <v>65466.75874530291</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>283922.7709373888</v>
+        <v>14829.76005230012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13574.68871440721</v>
+        <v>307817.987698948</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>74975.14975215448</v>
+        <v>82119.89507949259</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
     <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Onshore wind plants</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1167.498580441705</v>
+        <v>21983.55183090901</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21983.55183090901</v>
+        <v>15239.13137329725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15239.13137329725</v>
+        <v>1167.498580441705</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18265.96045579627</v>
+        <v>313506.4878267217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>313506.4878267217</v>
+        <v>102163.8903980711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>102163.8903980711</v>
+        <v>18265.96045579627</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22067.16407488147</v>
+        <v>322308.7693759575</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>322308.7693759575</v>
+        <v>123799.510422566</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>123799.510422566</v>
+        <v>22067.16407488147</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1542.060593650026</v>
+        <v>48174.82312736893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48174.82312736893</v>
+        <v>11811.55692192072</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11811.55692192072</v>
+        <v>1542.060593650026</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>455.1539189872819</v>
+        <v>69126.71206170156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>69126.71206170156</v>
+        <v>12029.30827376466</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12029.30827376466</v>
+        <v>455.1539189872819</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1211.758890673825</v>
+        <v>43923.27524566693</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43923.27524566693</v>
+        <v>13966.76402380725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13966.76402380725</v>
+        <v>1211.758890673825</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3814.11477327526</v>
+        <v>21175.47457971261</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21175.47457971261</v>
+        <v>11099.09009330743</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11099.09009330743</v>
+        <v>3814.11477327526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2015.894089040166</v>
+        <v>12896.28474952947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12896.28474952947</v>
+        <v>13554.03901565427</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13554.03901565427</v>
+        <v>2015.894089040166</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12069.22815370651</v>
+        <v>14504.0160766003</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14504.0160766003</v>
+        <v>14187.137479989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14187.137479989</v>
+        <v>12069.22815370651</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5638.280956287254</v>
+        <v>10239.62992780647</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10239.62992780647</v>
+        <v>14633.40046334954</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14633.40046334954</v>
+        <v>5638.280956287254</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6402.657099561755</v>
+        <v>8131.205168426211</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8131.205168426211</v>
+        <v>14479.8643604056</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14479.8643604056</v>
+        <v>6402.657099561755</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7039.536943056308</v>
+        <v>10122.6347604497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10122.6347604497</v>
+        <v>9117.474893138016</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9117.474893138016</v>
+        <v>7039.536943056308</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48.99483028137564</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>538.2258677132877</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10357.24975926156</v>
+        <v>48.99483028137564</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5260.414558462391</v>
+        <v>19643.96004088166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19643.96004088166</v>
+        <v>11678.6056191799</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11678.6056191799</v>
+        <v>5260.414558462391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7027.553816524378</v>
+        <v>16830.52938356766</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16830.52938356766</v>
+        <v>9122.945660720783</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9122.945660720783</v>
+        <v>7027.553816524378</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1438.566989604566</v>
+        <v>20563.43414931885</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20563.43414931885</v>
+        <v>12073.5470869554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12073.5470869554</v>
+        <v>1438.566989604566</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2619.595597007108</v>
+        <v>29119.97266362177</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29119.97266362177</v>
+        <v>17955.76635331372</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17955.76635331372</v>
+        <v>2619.595597007108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8315.695058939215</v>
+        <v>186507.7497737113</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>186507.7497737113</v>
+        <v>45373.86213592516</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45373.86213592516</v>
+        <v>8315.695058939215</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8346.963717347273</v>
+        <v>187000.2759123211</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>187000.2759123211</v>
+        <v>46408.31436843303</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46408.31436843303</v>
+        <v>8346.963717347273</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8428.3728239396</v>
+        <v>187639.9178729067</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>187639.9178729067</v>
+        <v>48757.3974285585</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48757.3974285585</v>
+        <v>8428.3728239396</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26955.02335702057</v>
+        <v>594860.7176472819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>594860.7176472819</v>
+        <v>151504.1628906048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>151504.1628906048</v>
+        <v>26955.02335702057</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27179.92437633959</v>
+        <v>595869.5521023697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>595869.5521023697</v>
+        <v>153887.5848002668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153887.5848002668</v>
+        <v>27179.92437633959</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27222.49810247112</v>
+        <v>597096.0478489175</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>597096.0478489175</v>
+        <v>153634.5944820631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153634.5944820631</v>
+        <v>27222.49810247112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>845.5868443316413</v>
+        <v>430.3168541359767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430.3168541359767</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12090.72719861821</v>
+        <v>845.5868443316413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27005.6917822306</v>
+        <v>598555.8736687242</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>598555.8736687242</v>
+        <v>153356.9559613152</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153356.9559613152</v>
+        <v>27005.6917822306</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26880.52610287402</v>
+        <v>600257.5784125663</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>600257.5784125663</v>
+        <v>153875.3833248852</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153875.3833248852</v>
+        <v>26880.52610287402</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24226.86015057092</v>
+        <v>575443.6172236633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>575443.6172236633</v>
+        <v>139503.122730908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139503.122730908</v>
+        <v>24226.86015057092</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24408.91533269646</v>
+        <v>577621.5240414115</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>577621.5240414115</v>
+        <v>140055.5024124878</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140055.5024124878</v>
+        <v>24408.91533269646</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24618.1520348303</v>
+        <v>580019.2285235338</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>580019.2285235338</v>
+        <v>140469.0512546406</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140469.0512546406</v>
+        <v>24618.1520348303</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24916.56921148527</v>
+        <v>582621.4552817373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>582621.4552817373</v>
+        <v>141343.6833243843</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141343.6833243843</v>
+        <v>24916.56921148527</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25151.9170122678</v>
+        <v>585421.5824127933</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>585421.5824127933</v>
+        <v>141728.611019623</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141728.611019623</v>
+        <v>25151.9170122678</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4443.784225713403</v>
+        <v>113708.6798975477</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>113708.6798975477</v>
+        <v>28592.25197686907</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28592.25197686907</v>
+        <v>4443.784225713403</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5147.707063095528</v>
+        <v>117000.5917024184</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117000.5917024184</v>
+        <v>28827.95998620638</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28827.95998620638</v>
+        <v>5147.707063095528</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6562.72472975601</v>
+        <v>120700.7932837484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>120700.7932837484</v>
+        <v>28912.88124839636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28912.88124839636</v>
+        <v>6562.72472975601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>902.5247365629416</v>
+        <v>1014.85521073983</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1014.85521073983</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8022.234747374016</v>
+        <v>902.5247365629416</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8232.954242143722</v>
+        <v>125036.5509092556</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>125036.5509092556</v>
+        <v>29259.55714073218</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29259.55714073218</v>
+        <v>8232.954242143722</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10031.07254939666</v>
+        <v>130351.2476366153</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>130351.2476366153</v>
+        <v>29898.24856166425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29898.24856166425</v>
+        <v>10031.07254939666</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7514.506392936746</v>
+        <v>47312.41396207456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47312.41396207456</v>
+        <v>14521.52737701312</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14521.52737701312</v>
+        <v>7514.506392936746</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6535.477013180032</v>
+        <v>56094.64394397475</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56094.64394397475</v>
+        <v>13653.2093397181</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13653.2093397181</v>
+        <v>6535.477013180032</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6336.741945080168</v>
+        <v>67544.93097569235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>67544.93097569235</v>
+        <v>12373.96497824532</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12373.96497824532</v>
+        <v>6336.741945080168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5860.167205103848</v>
+        <v>82313.67449808586</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>82313.67449808586</v>
+        <v>12256.38097967813</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12256.38097967813</v>
+        <v>5860.167205103848</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5162.594349634077</v>
+        <v>100970.4552030265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>100970.4552030265</v>
+        <v>14163.38473742991</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14163.38473742991</v>
+        <v>5162.594349634077</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4478.483875752718</v>
+        <v>123910.9476375049</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>123910.9476375049</v>
+        <v>19105.27230914403</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19105.27230914403</v>
+        <v>4478.483875752718</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5088.985236414941</v>
+        <v>151268.436571111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151268.436571111</v>
+        <v>29323.50471159187</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29323.50471159187</v>
+        <v>5088.985236414941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7854.860276266874</v>
+        <v>182839.8897974417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>182839.8897974417</v>
+        <v>44600.41045035725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44600.41045035725</v>
+        <v>7854.860276266874</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>98.7726955543053</v>
+        <v>2750.409196964295</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2750.409196964295</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9659.263315046461</v>
+        <v>98.7726955543053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11131.01712057332</v>
+        <v>218032.541270433</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>218032.541270433</v>
+        <v>62500.82541872701</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>62500.82541872701</v>
+        <v>11131.01712057332</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15505.40106242837</v>
+        <v>255835.2948908685</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>255835.2948908685</v>
+        <v>87597.16384810512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87597.16384810512</v>
+        <v>15505.40106242837</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22013.16077276337</v>
+        <v>294821.7776585668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>294821.7776585668</v>
+        <v>124432.4175887201</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>124432.4175887201</v>
+        <v>22013.16077276337</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26553.57581116282</v>
+        <v>333196.3709263215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>333196.3709263215</v>
+        <v>150100.731998577</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>150100.731998577</v>
+        <v>26553.57581116282</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27103.94031869119</v>
+        <v>368895.8112203926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>368895.8112203926</v>
+        <v>153587.2091171865</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153587.2091171865</v>
+        <v>27103.94031869119</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26766.7526636874</v>
+        <v>399752.3705495093</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>399752.3705495093</v>
+        <v>152233.5286070341</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>152233.5286070341</v>
+        <v>26766.7526636874</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26088.7197761861</v>
+        <v>484273.8436676497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>484273.8436676497</v>
+        <v>149095.9546778605</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149095.9546778605</v>
+        <v>26088.7197761861</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25125.22805717541</v>
+        <v>516764.3754640985</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>516764.3754640985</v>
+        <v>143984.1523725933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143984.1523725933</v>
+        <v>25125.22805717541</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27939.43496720213</v>
+        <v>522388.3460739888</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>522388.3460739888</v>
+        <v>158752.3410369523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>158752.3410369523</v>
+        <v>27939.43496720213</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27322.90989989357</v>
+        <v>517891.2037531752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>517891.2037531752</v>
+        <v>154685.870182531</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154685.870182531</v>
+        <v>27322.90989989357</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.273736754432321E-13</v>
+        <v>3787.788735643691</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3787.788735643691</v>
+        <v>9213.925933867096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9213.925933867096</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25556.87805875059</v>
+        <v>503680.5850482052</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>503680.5850482052</v>
+        <v>144115.2716055762</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144115.2716055762</v>
+        <v>25556.87805875059</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21251.61832882592</v>
+        <v>480914.0018471126</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>480914.0018471126</v>
+        <v>119300.7130335073</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>119300.7130335073</v>
+        <v>21251.61832882592</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14058.42657758226</v>
+        <v>442558.0124024935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>442558.0124024935</v>
+        <v>77801.54996997537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>77801.54996997537</v>
+        <v>14058.42657758226</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9783.221012065245</v>
+        <v>408395.8273407528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>408395.8273407528</v>
+        <v>50260.43815802736</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50260.43815802736</v>
+        <v>9783.221012065245</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10180.86345003475</v>
+        <v>372024.978557812</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>372024.978557812</v>
+        <v>46037.54893568088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46037.54893568088</v>
+        <v>10180.86345003475</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11240.10463316541</v>
+        <v>335876.4672742672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>335876.4672742672</v>
+        <v>44757.81099803606</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44757.81099803606</v>
+        <v>11240.10463316541</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11649.055867085</v>
+        <v>302255.8112427304</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>302255.8112427304</v>
+        <v>41528.06208824762</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41528.06208824762</v>
+        <v>11649.055867085</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10592.266098906</v>
+        <v>264512.6325635249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>264512.6325635249</v>
+        <v>33854.95434032776</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33854.95434032776</v>
+        <v>10592.266098906</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9583.504973354866</v>
+        <v>241616.5118574901</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>241616.5118574901</v>
+        <v>29728.92648697109</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29728.92648697109</v>
+        <v>9583.504973354866</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9014.18216999172</v>
+        <v>225943.4997961689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>225943.4997961689</v>
+        <v>29094.96053967834</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29094.96053967834</v>
+        <v>9014.18216999172</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>419.367027715833</v>
+        <v>3642.045125365785</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3642.045125365785</v>
+        <v>10935.03455378197</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10935.03455378197</v>
+        <v>419.367027715833</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8618.234623989381</v>
+        <v>217929.0524044037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>217929.0524044037</v>
+        <v>30279.61664436455</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30279.61664436455</v>
+        <v>8618.234623989381</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8324.22046787414</v>
+        <v>217410.1542909462</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>217410.1542909462</v>
+        <v>33882.4048477977</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33882.4048477977</v>
+        <v>8324.22046787414</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8197.867900632555</v>
+        <v>217217.4825962028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>217217.4825962028</v>
+        <v>39279.64870446105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39279.64870446105</v>
+        <v>8197.867900632555</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9410.859558484051</v>
+        <v>229467.0123679824</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>229467.0123679824</v>
+        <v>50710.90692579909</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50710.90692579909</v>
+        <v>9410.859558484051</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11948.21040643303</v>
+        <v>246566.7706218194</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>246566.7706218194</v>
+        <v>66781.16194349225</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>66781.16194349225</v>
+        <v>11948.21040643303</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15562.72576163732</v>
+        <v>267447.4205563841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>267447.4205563841</v>
+        <v>87238.75352298515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87238.75352298515</v>
+        <v>15562.72576163732</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19884.59194819705</v>
+        <v>291079.0086576883</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>291079.0086576883</v>
+        <v>111670.0305849989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>111670.0305849989</v>
+        <v>19884.59194819705</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24155.15148378542</v>
+        <v>311911.1722525582</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>311911.1722525582</v>
+        <v>136016.1477488596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>136016.1477488596</v>
+        <v>24155.15148378542</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27532.11508023681</v>
+        <v>338062.6347851735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>338062.6347851735</v>
+        <v>155292.1878163065</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155292.1878163065</v>
+        <v>27532.11508023681</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28903.85434357094</v>
+        <v>363993.6221645344</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>363993.6221645344</v>
+        <v>163365.6555537484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>163365.6555537484</v>
+        <v>28903.85434357094</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>387.7656110908424</v>
+        <v>6220.038314119924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6220.038314119924</v>
+        <v>11512.26696473417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11512.26696473417</v>
+        <v>387.7656110908424</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28912.43870357779</v>
+        <v>388724.8898362517</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>388724.8898362517</v>
+        <v>163833.9333361713</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>163833.9333361713</v>
+        <v>28912.43870357779</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28606.50708304957</v>
+        <v>411305.5413750596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>411305.5413750596</v>
+        <v>162424.2724002134</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>162424.2724002134</v>
+        <v>28606.50708304957</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28302.95096297032</v>
+        <v>426399.1395400912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>426399.1395400912</v>
+        <v>160719.3972079996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>160719.3972079996</v>
+        <v>28302.95096297032</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28457.17751962348</v>
+        <v>442092.4196275733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>442092.4196275733</v>
+        <v>161062.9843313289</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>161062.9843313289</v>
+        <v>28457.17751962348</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27770.1331822098</v>
+        <v>453285.2255208287</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>453285.2255208287</v>
+        <v>156428.6090701418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>156428.6090701418</v>
+        <v>27770.1331822098</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25292.58214824495</v>
+        <v>459517.0208238065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>459517.0208238065</v>
+        <v>141616.4334338633</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141616.4334338633</v>
+        <v>25292.58214824495</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21350.0340594388</v>
+        <v>460580.1968303043</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>460580.1968303043</v>
+        <v>118140.1260915929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>118140.1260915929</v>
+        <v>21350.0340594388</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16641.23965828487</v>
+        <v>451902.0672554895</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>451902.0672554895</v>
+        <v>89432.18448432209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>89432.18448432209</v>
+        <v>16641.23965828487</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13444.63262640714</v>
+        <v>443225.7876117565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>443225.7876117565</v>
+        <v>67604.08602419309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>67604.08602419309</v>
+        <v>13444.63262640714</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12518.46819748654</v>
+        <v>430615.1270386875</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430615.1270386875</v>
+        <v>57078.0891596186</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>57078.0891596186</v>
+        <v>12518.46819748654</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>483.9729262986148</v>
+        <v>17711.34937109169</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17711.34937109169</v>
+        <v>9096.64444163983</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9096.64444163983</v>
+        <v>483.9729262986148</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12778.49211966625</v>
+        <v>415063.2878342196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>415063.2878342196</v>
+        <v>53036.10466526868</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>53036.10466526868</v>
+        <v>12778.49211966625</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12831.25665406231</v>
+        <v>397745.0369530115</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>397745.0369530115</v>
+        <v>49353.05819291063</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49353.05819291063</v>
+        <v>12831.25665406231</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12053.43091559201</v>
+        <v>374650.6517173015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>374650.6517173015</v>
+        <v>43649.13580299634</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43649.13580299634</v>
+        <v>12053.43091559201</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11290.43222956412</v>
+        <v>357516.4812790174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>357516.4812790174</v>
+        <v>40473.81119368365</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40473.81119368365</v>
+        <v>11290.43222956412</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10718.85892848321</v>
+        <v>342170.0461377483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>342170.0461377483</v>
+        <v>40027.18752605421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40027.18752605421</v>
+        <v>10718.85892848321</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10424.0904499527</v>
+        <v>329502.0867879558</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>329502.0867879558</v>
+        <v>42192.41282274108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42192.41282274108</v>
+        <v>10424.0904499527</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10453.62441042636</v>
+        <v>320167.6569573749</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>320167.6569573749</v>
+        <v>46986.06245291699</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46986.06245291699</v>
+        <v>10453.62441042636</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10704.95646030246</v>
+        <v>307382.9852808937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>307382.9852808937</v>
+        <v>53209.81911005965</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>53209.81911005965</v>
+        <v>10704.95646030246</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12227.29811190255</v>
+        <v>305685.939541718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>305685.939541718</v>
+        <v>65466.75874530291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>65466.75874530291</v>
+        <v>12227.29811190255</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14829.76005230012</v>
+        <v>307817.987698948</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>307817.987698948</v>
+        <v>82119.89507949259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>82119.89507949259</v>
+        <v>14829.76005230012</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Max.xlsx
+++ b/Final Demand/AIC/AIC_Max.xlsx
@@ -146,10 +146,10 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Onshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Offshore wind plants</t>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21983.55183090901</v>
+        <v>15239.13137329725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15239.13137329725</v>
+        <v>21983.55183090901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>313506.4878267217</v>
+        <v>102163.8903980711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102163.8903980711</v>
+        <v>313506.4878267217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>322308.7693759575</v>
+        <v>123799.510422566</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>123799.510422566</v>
+        <v>322308.7693759575</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48174.82312736893</v>
+        <v>11811.55692192072</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11811.55692192072</v>
+        <v>48174.82312736893</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>69126.71206170156</v>
+        <v>12029.30827376466</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12029.30827376466</v>
+        <v>69126.71206170156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43923.27524566693</v>
+        <v>13966.76402380725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13966.76402380725</v>
+        <v>43923.27524566693</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21175.47457971261</v>
+        <v>11099.09009330743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11099.09009330743</v>
+        <v>21175.47457971261</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12896.28474952947</v>
+        <v>13554.03901565427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13554.03901565427</v>
+        <v>12896.28474952947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14504.0160766003</v>
+        <v>14187.137479989</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14187.137479989</v>
+        <v>14504.0160766003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10239.62992780647</v>
+        <v>14633.40046334954</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14633.40046334954</v>
+        <v>10239.62992780647</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8131.205168426211</v>
+        <v>14479.8643604056</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14479.8643604056</v>
+        <v>8131.205168426211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10122.6347604497</v>
+        <v>9117.474893138016</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9117.474893138016</v>
+        <v>10122.6347604497</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>538.2258677132877</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10357.24975926156</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19643.96004088166</v>
+        <v>11678.6056191799</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11678.6056191799</v>
+        <v>19643.96004088166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16830.52938356766</v>
+        <v>9122.945660720783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9122.945660720783</v>
+        <v>16830.52938356766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20563.43414931885</v>
+        <v>12073.5470869554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12073.5470869554</v>
+        <v>20563.43414931885</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29119.97266362177</v>
+        <v>17955.76635331372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17955.76635331372</v>
+        <v>29119.97266362177</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>186507.7497737113</v>
+        <v>45373.86213592516</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45373.86213592516</v>
+        <v>186507.7497737113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>187000.2759123211</v>
+        <v>46408.31436843303</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46408.31436843303</v>
+        <v>187000.2759123211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>187639.9178729067</v>
+        <v>48757.3974285585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48757.3974285585</v>
+        <v>187639.9178729067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>594860.7176472819</v>
+        <v>151504.1628906048</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151504.1628906048</v>
+        <v>594860.7176472819</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>595869.5521023697</v>
+        <v>153887.5848002668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153887.5848002668</v>
+        <v>595869.5521023697</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>597096.0478489175</v>
+        <v>153634.5944820631</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153634.5944820631</v>
+        <v>597096.0478489175</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430.3168541359767</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12090.72719861821</v>
+        <v>430.3168541359767</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>598555.8736687242</v>
+        <v>153356.9559613152</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153356.9559613152</v>
+        <v>598555.8736687242</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>600257.5784125663</v>
+        <v>153875.3833248852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153875.3833248852</v>
+        <v>600257.5784125663</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>575443.6172236633</v>
+        <v>139503.122730908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139503.122730908</v>
+        <v>575443.6172236633</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>577621.5240414115</v>
+        <v>140055.5024124878</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140055.5024124878</v>
+        <v>577621.5240414115</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>580019.2285235338</v>
+        <v>140469.0512546406</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140469.0512546406</v>
+        <v>580019.2285235338</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>582621.4552817373</v>
+        <v>141343.6833243843</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141343.6833243843</v>
+        <v>582621.4552817373</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>585421.5824127933</v>
+        <v>141728.611019623</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141728.611019623</v>
+        <v>585421.5824127933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>113708.6798975477</v>
+        <v>28592.25197686907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28592.25197686907</v>
+        <v>113708.6798975477</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117000.5917024184</v>
+        <v>28827.95998620638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28827.95998620638</v>
+        <v>117000.5917024184</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>120700.7932837484</v>
+        <v>28912.88124839636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28912.88124839636</v>
+        <v>120700.7932837484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1014.85521073983</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8022.234747374016</v>
+        <v>1014.85521073983</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>125036.5509092556</v>
+        <v>29259.55714073218</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29259.55714073218</v>
+        <v>125036.5509092556</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130351.2476366153</v>
+        <v>29898.24856166425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29898.24856166425</v>
+        <v>130351.2476366153</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47312.41396207456</v>
+        <v>14521.52737701312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14521.52737701312</v>
+        <v>47312.41396207456</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>56094.64394397475</v>
+        <v>13653.2093397181</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13653.2093397181</v>
+        <v>56094.64394397475</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>67544.93097569235</v>
+        <v>12373.96497824532</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12373.96497824532</v>
+        <v>67544.93097569235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>82313.67449808586</v>
+        <v>12256.38097967813</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12256.38097967813</v>
+        <v>82313.67449808586</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>100970.4552030265</v>
+        <v>14163.38473742991</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14163.38473742991</v>
+        <v>100970.4552030265</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>123910.9476375049</v>
+        <v>19105.27230914403</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19105.27230914403</v>
+        <v>123910.9476375049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>151268.436571111</v>
+        <v>29323.50471159187</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29323.50471159187</v>
+        <v>151268.436571111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>182839.8897974417</v>
+        <v>44600.41045035725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44600.41045035725</v>
+        <v>182839.8897974417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2750.409196964295</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9659.263315046461</v>
+        <v>2750.409196964295</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>218032.541270433</v>
+        <v>62500.82541872701</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>62500.82541872701</v>
+        <v>218032.541270433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>255835.2948908685</v>
+        <v>87597.16384810512</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87597.16384810512</v>
+        <v>255835.2948908685</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>294821.7776585668</v>
+        <v>124432.4175887201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124432.4175887201</v>
+        <v>294821.7776585668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333196.3709263215</v>
+        <v>150100.731998577</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>150100.731998577</v>
+        <v>333196.3709263215</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>368895.8112203926</v>
+        <v>153587.2091171865</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153587.2091171865</v>
+        <v>368895.8112203926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>399752.3705495093</v>
+        <v>152233.5286070341</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>152233.5286070341</v>
+        <v>399752.3705495093</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>484273.8436676497</v>
+        <v>149095.9546778605</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149095.9546778605</v>
+        <v>484273.8436676497</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>516764.3754640985</v>
+        <v>143984.1523725933</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143984.1523725933</v>
+        <v>516764.3754640985</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>522388.3460739888</v>
+        <v>158752.3410369523</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>158752.3410369523</v>
+        <v>522388.3460739888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>517891.2037531752</v>
+        <v>154685.870182531</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154685.870182531</v>
+        <v>517891.2037531752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3787.788735643691</v>
+        <v>9213.925933867096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9213.925933867096</v>
+        <v>3787.788735643691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>503680.5850482052</v>
+        <v>144115.2716055762</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144115.2716055762</v>
+        <v>503680.5850482052</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>480914.0018471126</v>
+        <v>119300.7130335073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>119300.7130335073</v>
+        <v>480914.0018471126</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>442558.0124024935</v>
+        <v>77801.54996997537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>77801.54996997537</v>
+        <v>442558.0124024935</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>408395.8273407528</v>
+        <v>50260.43815802736</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50260.43815802736</v>
+        <v>408395.8273407528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>372024.978557812</v>
+        <v>46037.54893568088</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46037.54893568088</v>
+        <v>372024.978557812</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>335876.4672742672</v>
+        <v>44757.81099803606</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44757.81099803606</v>
+        <v>335876.4672742672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>302255.8112427304</v>
+        <v>41528.06208824762</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41528.06208824762</v>
+        <v>302255.8112427304</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>264512.6325635249</v>
+        <v>33854.95434032776</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33854.95434032776</v>
+        <v>264512.6325635249</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>241616.5118574901</v>
+        <v>29728.92648697109</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29728.92648697109</v>
+        <v>241616.5118574901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>225943.4997961689</v>
+        <v>29094.96053967834</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29094.96053967834</v>
+        <v>225943.4997961689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3642.045125365785</v>
+        <v>10935.03455378197</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10935.03455378197</v>
+        <v>3642.045125365785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>217929.0524044037</v>
+        <v>30279.61664436455</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30279.61664436455</v>
+        <v>217929.0524044037</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>217410.1542909462</v>
+        <v>33882.4048477977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33882.4048477977</v>
+        <v>217410.1542909462</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>217217.4825962028</v>
+        <v>39279.64870446105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39279.64870446105</v>
+        <v>217217.4825962028</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>229467.0123679824</v>
+        <v>50710.90692579909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50710.90692579909</v>
+        <v>229467.0123679824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>246566.7706218194</v>
+        <v>66781.16194349225</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66781.16194349225</v>
+        <v>246566.7706218194</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>267447.4205563841</v>
+        <v>87238.75352298515</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87238.75352298515</v>
+        <v>267447.4205563841</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>291079.0086576883</v>
+        <v>111670.0305849989</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>111670.0305849989</v>
+        <v>291079.0086576883</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>311911.1722525582</v>
+        <v>136016.1477488596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>136016.1477488596</v>
+        <v>311911.1722525582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>338062.6347851735</v>
+        <v>155292.1878163065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155292.1878163065</v>
+        <v>338062.6347851735</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>363993.6221645344</v>
+        <v>163365.6555537484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>163365.6555537484</v>
+        <v>363993.6221645344</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6220.038314119924</v>
+        <v>11512.26696473417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11512.26696473417</v>
+        <v>6220.038314119924</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>388724.8898362517</v>
+        <v>163833.9333361713</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>163833.9333361713</v>
+        <v>388724.8898362517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411305.5413750596</v>
+        <v>162424.2724002134</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>162424.2724002134</v>
+        <v>411305.5413750596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>426399.1395400912</v>
+        <v>160719.3972079996</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>160719.3972079996</v>
+        <v>426399.1395400912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>442092.4196275733</v>
+        <v>161062.9843313289</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>161062.9843313289</v>
+        <v>442092.4196275733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>453285.2255208287</v>
+        <v>156428.6090701418</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>156428.6090701418</v>
+        <v>453285.2255208287</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>459517.0208238065</v>
+        <v>141616.4334338633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141616.4334338633</v>
+        <v>459517.0208238065</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>460580.1968303043</v>
+        <v>118140.1260915929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118140.1260915929</v>
+        <v>460580.1968303043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>451902.0672554895</v>
+        <v>89432.18448432209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>89432.18448432209</v>
+        <v>451902.0672554895</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>443225.7876117565</v>
+        <v>67604.08602419309</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>67604.08602419309</v>
+        <v>443225.7876117565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430615.1270386875</v>
+        <v>57078.0891596186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>57078.0891596186</v>
+        <v>430615.1270386875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17711.34937109169</v>
+        <v>9096.64444163983</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9096.64444163983</v>
+        <v>17711.34937109169</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>415063.2878342196</v>
+        <v>53036.10466526868</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>53036.10466526868</v>
+        <v>415063.2878342196</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>397745.0369530115</v>
+        <v>49353.05819291063</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49353.05819291063</v>
+        <v>397745.0369530115</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>374650.6517173015</v>
+        <v>43649.13580299634</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43649.13580299634</v>
+        <v>374650.6517173015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>357516.4812790174</v>
+        <v>40473.81119368365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40473.81119368365</v>
+        <v>357516.4812790174</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>342170.0461377483</v>
+        <v>40027.18752605421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40027.18752605421</v>
+        <v>342170.0461377483</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>329502.0867879558</v>
+        <v>42192.41282274108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42192.41282274108</v>
+        <v>329502.0867879558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>320167.6569573749</v>
+        <v>46986.06245291699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46986.06245291699</v>
+        <v>320167.6569573749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>307382.9852808937</v>
+        <v>53209.81911005965</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>53209.81911005965</v>
+        <v>307382.9852808937</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>305685.939541718</v>
+        <v>65466.75874530291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>65466.75874530291</v>
+        <v>305685.939541718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>307817.987698948</v>
+        <v>82119.89507949259</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>82119.89507949259</v>
+        <v>307817.987698948</v>
       </c>
       <c r="F6">
         <v>0</v>
